--- a/src/excel/AntigenSupportingData- Measles-508.xlsx
+++ b/src/excel/AntigenSupportingData- Measles-508.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tmp\Play CDS XML\Version 4.59 - 508\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tmp\Play CDS XML\Version 4.63 - 508 - DRAFT\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{336F05E6-2320-48CC-9372-6A6C1909EB5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A76B191A-637D-49B4-9AEF-3476F16CC38C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1820" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1901" uniqueCount="384">
   <si>
     <t>Resources</t>
   </si>
@@ -251,15 +251,6 @@
   </si>
   <si>
     <t>Overview</t>
-  </si>
-  <si>
-    <t>≥12 mo to &lt;13 yrs</t>
-  </si>
-  <si>
-    <t>≥12 mo-4 d</t>
-  </si>
-  <si>
-    <t>≥12 mo</t>
   </si>
   <si>
     <t>Version</t>
@@ -1156,6 +1147,96 @@
   </si>
   <si>
     <t>Publication Date: 11/08/2024</t>
+  </si>
+  <si>
+    <t>Publication Date: 12/13/2024</t>
+  </si>
+  <si>
+    <t>Contraindications -&gt; Antigen Contraindication -&gt; Contraindication (Code)</t>
+  </si>
+  <si>
+    <t>Solid organ transplantation (157)</t>
+  </si>
+  <si>
+    <t>Typo correction</t>
+  </si>
+  <si>
+    <t>HIV Infection (186)</t>
+  </si>
+  <si>
+    <t>Do not vaccinate with MMRV if the patient has an HIV infection of any severity.</t>
+  </si>
+  <si>
+    <t>Contraindications -&gt; New Vaccine Contraindication</t>
+  </si>
+  <si>
+    <t>MMRV (CVX 94) contraindication for persons with an HIV infection (coded observation 186)</t>
+  </si>
+  <si>
+    <t>HIV infection of any severity is listed as a contraindication for MMRV in the 2025 yearly schedule.</t>
+  </si>
+  <si>
+    <t>Publication Date: 02/06/2025</t>
+  </si>
+  <si>
+    <t>Persons at risk during a measles outbreak (275)</t>
+  </si>
+  <si>
+    <t>Administer to persons identified as at increased risk during a community measles outbreak.</t>
+  </si>
+  <si>
+    <t>Risk 1-dose -&gt; Indication -&gt; New Indication</t>
+  </si>
+  <si>
+    <t>Added new indication to support HAN and existing MMWR recommendations for measles outbreaks.</t>
+  </si>
+  <si>
+    <t>Severe allergic reaction after previous dose of Mumps (092)</t>
+  </si>
+  <si>
+    <t>Do not vaccinate if the patient has had a severe allergic reaction after a previous dose of Mumps vaccine.</t>
+  </si>
+  <si>
+    <t>Severe allergic reaction after previous dose of Rubella (093)</t>
+  </si>
+  <si>
+    <t>Do not vaccinate if the patient has had a severe allergic reaction after a previous dose of Rubella vaccine.</t>
+  </si>
+  <si>
+    <t>Severe allergic reaction after previous dose of Varicella (089)</t>
+  </si>
+  <si>
+    <t>Do not vaccinate if the patient has had a severe allergic reaction after a previous dose of Varicella vaccine.</t>
+  </si>
+  <si>
+    <t>Contraindications -&gt; New Antigen Contraindications</t>
+  </si>
+  <si>
+    <t>Added code 92 and 93</t>
+  </si>
+  <si>
+    <t>Added new antigen contraindication for severe allergic reaction after previous dose of mumps (092) and rubella (093). This existing codes are used in mumps and rubella, but apply here too as all measles-containing vaccines also contain mumps and rubella.</t>
+  </si>
+  <si>
+    <t>Do not vaccinate if the patient has HIV/AIDS but are not severely immunocompromised (See the CDC general recommendations for a definition of "severely immunocompromised").</t>
+  </si>
+  <si>
+    <t>Added new vaccine contraindications to support combination vaccines which have cross antigen contraindications impacting the combination vaccine. For example, a Varicella-specific contraindication also contraindicates the use of MMRV across all antigens, not just Varicella. Previously, the Varicella-specific contraindications was only present in Varicella supporting data.</t>
+  </si>
+  <si>
+    <t>Added code 089, 155</t>
+  </si>
+  <si>
+    <t>Publication Date: 05/23/2025</t>
+  </si>
+  <si>
+    <t>≥12 mos</t>
+  </si>
+  <si>
+    <t>≥12 mos to &lt;13 yrs</t>
+  </si>
+  <si>
+    <t>≥12 mos - 4 days</t>
   </si>
 </sst>
 </file>
@@ -2108,7 +2189,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="188">
+  <cellXfs count="191">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2657,6 +2738,15 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="18" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="18" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3003,7 +3093,7 @@
         <v>69</v>
       </c>
       <c r="B1" s="91" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C1" s="91"/>
       <c r="D1" s="91"/>
@@ -3029,7 +3119,7 @@
         <v>69</v>
       </c>
       <c r="B3" s="95" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C3" s="95"/>
       <c r="D3" s="95"/>
@@ -3055,7 +3145,7 @@
         <v>69</v>
       </c>
       <c r="B5" s="95" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C5" s="95"/>
       <c r="D5" s="95"/>
@@ -3079,7 +3169,7 @@
         <v>69</v>
       </c>
       <c r="B7" s="95" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C7" s="95"/>
       <c r="D7" s="95"/>
@@ -3105,7 +3195,7 @@
         <v>69</v>
       </c>
       <c r="B9" s="95" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C9" s="95"/>
       <c r="D9" s="95"/>
@@ -3131,7 +3221,7 @@
         <v>69</v>
       </c>
       <c r="B11" s="95" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C11" s="95"/>
       <c r="D11" s="95"/>
@@ -3157,7 +3247,7 @@
         <v>69</v>
       </c>
       <c r="B13" s="95" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C13" s="95"/>
       <c r="D13" s="95"/>
@@ -3171,7 +3261,7 @@
         <v>69</v>
       </c>
       <c r="B14" s="95" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C14" s="95"/>
       <c r="D14" s="95"/>
@@ -3185,7 +3275,7 @@
         <v>69</v>
       </c>
       <c r="B15" s="97" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C15" s="97"/>
       <c r="D15" s="97"/>
@@ -3209,7 +3299,7 @@
         <v>0</v>
       </c>
       <c r="B18" s="41" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C18" s="165"/>
       <c r="D18" s="165"/>
@@ -3224,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="B19" s="41" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C19" s="165"/>
       <c r="D19" s="165"/>
@@ -3239,7 +3329,7 @@
         <v>0</v>
       </c>
       <c r="B20" s="41" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C20" s="165"/>
       <c r="D20" s="165"/>
@@ -3254,7 +3344,7 @@
         <v>0</v>
       </c>
       <c r="B21" s="41" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C21" s="165"/>
       <c r="D21" s="165"/>
@@ -3269,7 +3359,7 @@
         <v>0</v>
       </c>
       <c r="B22" s="41" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="C22" s="165"/>
       <c r="D22" s="165"/>
@@ -3334,10 +3424,10 @@
         <v>9</v>
       </c>
       <c r="C26" s="23" t="s">
-        <v>72</v>
+        <v>381</v>
       </c>
       <c r="D26" s="23" t="s">
-        <v>71</v>
+        <v>383</v>
       </c>
       <c r="E26" s="11" t="s">
         <v>10</v>
@@ -3359,13 +3449,13 @@
         <v>9</v>
       </c>
       <c r="C27" s="23" t="s">
-        <v>72</v>
+        <v>381</v>
       </c>
       <c r="D27" s="23" t="s">
-        <v>71</v>
+        <v>383</v>
       </c>
       <c r="E27" s="180" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="F27" s="181">
         <v>0.5</v>
@@ -3384,10 +3474,10 @@
         <v>12</v>
       </c>
       <c r="C28" s="24" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D28" s="23" t="s">
-        <v>71</v>
+        <v>383</v>
       </c>
       <c r="E28" s="11"/>
       <c r="F28" s="11">
@@ -3407,13 +3497,13 @@
         <v>15</v>
       </c>
       <c r="C29" s="24" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D29" s="23" t="s">
-        <v>71</v>
+        <v>383</v>
       </c>
       <c r="E29" s="24" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F29" s="11">
         <v>0.5</v>
@@ -3432,13 +3522,13 @@
         <v>16</v>
       </c>
       <c r="C30" s="23" t="s">
-        <v>70</v>
+        <v>382</v>
       </c>
       <c r="D30" s="23" t="s">
-        <v>71</v>
+        <v>383</v>
       </c>
       <c r="E30" s="24" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F30" s="11">
         <v>0.5</v>
@@ -3471,7 +3561,7 @@
     </row>
     <row r="33" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A33" s="58" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B33" s="45" t="s">
         <v>17</v>
@@ -3486,10 +3576,10 @@
     </row>
     <row r="35" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A35" s="58" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B35" s="86" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C35" s="46"/>
       <c r="D35" s="46"/>
@@ -3511,10 +3601,10 @@
     </row>
     <row r="37" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A37" s="178" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B37" s="86" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C37" s="46"/>
       <c r="D37" s="46"/>
@@ -3526,10 +3616,10 @@
     </row>
     <row r="39" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A39" s="178" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B39" s="86" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C39" s="46"/>
       <c r="D39" s="46"/>
@@ -3546,7 +3636,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:R74"/>
+  <dimension ref="A1:R88"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
@@ -3560,1060 +3650,1257 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B1" s="182">
-        <v>4.59</v>
-      </c>
-      <c r="C1" s="184" t="s">
-        <v>356</v>
+        <v>4.62</v>
+      </c>
+      <c r="C1" s="188" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" s="183" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="E2" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="F2" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="183" t="s">
-        <v>76</v>
-      </c>
-      <c r="D2" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="E2" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="F2" s="29" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A3" s="177" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B3" s="61">
         <v>1</v>
       </c>
       <c r="C3" s="65" t="s">
-        <v>354</v>
+        <v>374</v>
       </c>
       <c r="D3" s="65" t="s">
         <v>13</v>
       </c>
       <c r="E3" s="65" t="s">
-        <v>13</v>
+        <v>375</v>
       </c>
       <c r="F3" s="67" t="s">
-        <v>355</v>
-      </c>
-      <c r="G3" s="37"/>
-    </row>
-    <row r="4" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="A4" s="177" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B4" s="61">
         <v>2</v>
       </c>
       <c r="C4" s="65" t="s">
-        <v>340</v>
-      </c>
-      <c r="D4" s="171" t="s">
-        <v>341</v>
-      </c>
-      <c r="E4" s="171" t="s">
-        <v>342</v>
+        <v>360</v>
+      </c>
+      <c r="D4" s="65" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="65" t="s">
+        <v>379</v>
       </c>
       <c r="F4" s="67" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+        <v>378</v>
+      </c>
+      <c r="G4" s="37"/>
+    </row>
+    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="167" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B5" s="61">
         <v>3</v>
       </c>
       <c r="C5" s="65" t="s">
-        <v>344</v>
-      </c>
-      <c r="D5" s="171" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="171" t="s">
-        <v>339</v>
+        <v>366</v>
+      </c>
+      <c r="D5" s="65" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="65" t="s">
+        <v>364</v>
       </c>
       <c r="F5" s="67" t="s">
-        <v>345</v>
-      </c>
+        <v>367</v>
+      </c>
+      <c r="G5" s="37"/>
     </row>
     <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B7" s="182">
-        <v>4.5599999999999996</v>
-      </c>
-      <c r="C7" s="184" t="s">
-        <v>336</v>
+        <v>4.6100000000000003</v>
+      </c>
+      <c r="C7" s="188" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="B8" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" s="183" t="s">
+        <v>73</v>
+      </c>
+      <c r="D8" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="B8" s="28" t="s">
+      <c r="E8" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="F8" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="C8" s="183" t="s">
-        <v>76</v>
-      </c>
-      <c r="D8" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="E8" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="F8" s="29" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="167" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B9" s="61">
         <v>1</v>
       </c>
       <c r="C9" s="65" t="s">
-        <v>334</v>
-      </c>
-      <c r="D9" s="63" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="67" t="s">
-        <v>333</v>
+        <v>360</v>
+      </c>
+      <c r="D9" s="65" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="65" t="s">
+        <v>361</v>
       </c>
       <c r="F9" s="67" t="s">
-        <v>335</v>
-      </c>
+        <v>362</v>
+      </c>
+      <c r="G9" s="37"/>
     </row>
     <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="26" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B11" s="182">
-        <v>4.5199999999999996</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="C11" s="184" t="s">
-        <v>332</v>
+        <v>354</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="B12" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" s="183" t="s">
+        <v>73</v>
+      </c>
+      <c r="D12" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="B12" s="28" t="s">
+      <c r="E12" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="F12" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="C12" s="183" t="s">
-        <v>76</v>
-      </c>
-      <c r="D12" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="E12" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="F12" s="29" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="177" t="s">
-        <v>74</v>
+    </row>
+    <row r="13" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="167" t="s">
+        <v>71</v>
       </c>
       <c r="B13" s="61">
         <v>1</v>
       </c>
       <c r="C13" s="65" t="s">
+        <v>355</v>
+      </c>
+      <c r="D13" s="65" t="s">
+        <v>334</v>
+      </c>
+      <c r="E13" s="65" t="s">
+        <v>356</v>
+      </c>
+      <c r="F13" s="67" t="s">
+        <v>357</v>
+      </c>
+      <c r="G13" s="37"/>
+    </row>
+    <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A15" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="B15" s="182">
+        <v>4.59</v>
+      </c>
+      <c r="C15" s="184" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="B16" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" s="183" t="s">
+        <v>73</v>
+      </c>
+      <c r="D16" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="E16" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="F16" s="29" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A17" s="177" t="s">
+        <v>71</v>
+      </c>
+      <c r="B17" s="61">
+        <v>1</v>
+      </c>
+      <c r="C17" s="65" t="s">
+        <v>351</v>
+      </c>
+      <c r="D17" s="65" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="65" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="67" t="s">
+        <v>352</v>
+      </c>
+      <c r="G17" s="37"/>
+    </row>
+    <row r="18" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A18" s="177" t="s">
+        <v>71</v>
+      </c>
+      <c r="B18" s="61">
+        <v>2</v>
+      </c>
+      <c r="C18" s="65" t="s">
+        <v>337</v>
+      </c>
+      <c r="D18" s="171" t="s">
+        <v>338</v>
+      </c>
+      <c r="E18" s="171" t="s">
+        <v>339</v>
+      </c>
+      <c r="F18" s="67" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A19" s="167" t="s">
+        <v>71</v>
+      </c>
+      <c r="B19" s="61">
+        <v>3</v>
+      </c>
+      <c r="C19" s="65" t="s">
+        <v>341</v>
+      </c>
+      <c r="D19" s="171" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="171" t="s">
+        <v>336</v>
+      </c>
+      <c r="F19" s="67" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A21" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="B21" s="182">
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="C21" s="184" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="B22" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="C22" s="183" t="s">
+        <v>73</v>
+      </c>
+      <c r="D22" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="E22" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="F22" s="29" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="A23" s="167" t="s">
+        <v>71</v>
+      </c>
+      <c r="B23" s="61">
+        <v>1</v>
+      </c>
+      <c r="C23" s="65" t="s">
+        <v>331</v>
+      </c>
+      <c r="D23" s="63" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" s="67" t="s">
+        <v>330</v>
+      </c>
+      <c r="F23" s="67" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A25" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="B25" s="182">
+        <v>4.5199999999999996</v>
+      </c>
+      <c r="C25" s="184" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="B26" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="C26" s="183" t="s">
+        <v>73</v>
+      </c>
+      <c r="D26" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="E26" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="F26" s="29" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="177" t="s">
+        <v>71</v>
+      </c>
+      <c r="B27" s="61">
+        <v>1</v>
+      </c>
+      <c r="C27" s="65" t="s">
+        <v>321</v>
+      </c>
+      <c r="D27" s="63" t="s">
+        <v>314</v>
+      </c>
+      <c r="E27" s="67" t="s">
+        <v>322</v>
+      </c>
+      <c r="F27" s="67" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="167" t="s">
+        <v>71</v>
+      </c>
+      <c r="B28" s="61">
+        <v>2</v>
+      </c>
+      <c r="C28" s="65" t="s">
         <v>324</v>
       </c>
-      <c r="D13" s="63" t="s">
-        <v>317</v>
-      </c>
-      <c r="E13" s="67" t="s">
+      <c r="D28" s="63" t="s">
+        <v>13</v>
+      </c>
+      <c r="E28" s="63" t="s">
         <v>325</v>
       </c>
-      <c r="F13" s="67" t="s">
+      <c r="F28" s="67" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="167" t="s">
+    <row r="30" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A30" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="B30" s="182">
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="C30" s="184" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="B31" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="C31" s="183" t="s">
+        <v>73</v>
+      </c>
+      <c r="D31" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="B14" s="61">
+      <c r="E31" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="F31" s="29" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A32" s="167" t="s">
+        <v>71</v>
+      </c>
+      <c r="B32" s="61">
+        <v>1</v>
+      </c>
+      <c r="C32" s="65" t="s">
+        <v>318</v>
+      </c>
+      <c r="D32" s="63" t="s">
+        <v>13</v>
+      </c>
+      <c r="E32" s="67" t="s">
+        <v>13</v>
+      </c>
+      <c r="F32" s="67" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A34" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="B34" s="74">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="B35" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="C35" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="D35" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="E35" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="F35" s="29" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="167" t="s">
+        <v>71</v>
+      </c>
+      <c r="B36" s="61">
+        <v>1</v>
+      </c>
+      <c r="C36" s="65" t="s">
+        <v>277</v>
+      </c>
+      <c r="D36" s="63" t="s">
+        <v>77</v>
+      </c>
+      <c r="E36" s="67" t="s">
+        <v>315</v>
+      </c>
+      <c r="F36" s="67" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A38" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="B38" s="74">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="B39" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="C39" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="D39" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="E39" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="F39" s="29" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A40" s="167" t="s">
+        <v>71</v>
+      </c>
+      <c r="B40" s="61">
+        <v>1</v>
+      </c>
+      <c r="C40" s="65" t="s">
+        <v>277</v>
+      </c>
+      <c r="D40" s="63" t="s">
+        <v>77</v>
+      </c>
+      <c r="E40" s="67" t="s">
+        <v>309</v>
+      </c>
+      <c r="F40" s="67" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A42" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="B42" s="74">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="B43" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="C43" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="D43" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="E43" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="F43" s="29" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A44" s="177" t="s">
+        <v>71</v>
+      </c>
+      <c r="B44" s="61">
+        <v>1</v>
+      </c>
+      <c r="C44" s="65" t="s">
+        <v>91</v>
+      </c>
+      <c r="D44" s="63" t="s">
+        <v>77</v>
+      </c>
+      <c r="E44" s="67" t="s">
+        <v>281</v>
+      </c>
+      <c r="F44" s="67" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A45" s="177" t="s">
+        <v>71</v>
+      </c>
+      <c r="B45" s="61">
         <v>2</v>
       </c>
-      <c r="C14" s="65" t="s">
-        <v>327</v>
-      </c>
-      <c r="D14" s="63" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="63" t="s">
-        <v>328</v>
-      </c>
-      <c r="F14" s="67" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" s="26" t="s">
+      <c r="C45" s="65" t="s">
+        <v>91</v>
+      </c>
+      <c r="D45" s="63" t="s">
+        <v>77</v>
+      </c>
+      <c r="E45" s="67" t="s">
+        <v>283</v>
+      </c>
+      <c r="F45" s="67" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A46" s="177" t="s">
+        <v>71</v>
+      </c>
+      <c r="B46" s="61">
+        <v>3</v>
+      </c>
+      <c r="C46" s="65" t="s">
+        <v>300</v>
+      </c>
+      <c r="D46" s="63" t="s">
+        <v>301</v>
+      </c>
+      <c r="E46" s="67" t="s">
+        <v>302</v>
+      </c>
+      <c r="F46" s="67" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A47" s="177" t="s">
+        <v>71</v>
+      </c>
+      <c r="B47" s="61">
+        <v>4</v>
+      </c>
+      <c r="C47" s="65" t="s">
+        <v>297</v>
+      </c>
+      <c r="D47" s="63" t="s">
+        <v>77</v>
+      </c>
+      <c r="E47" s="67" t="s">
+        <v>298</v>
+      </c>
+      <c r="F47" s="67" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A48" s="167" t="s">
+        <v>71</v>
+      </c>
+      <c r="B48" s="61">
+        <v>5</v>
+      </c>
+      <c r="C48" s="65" t="s">
+        <v>290</v>
+      </c>
+      <c r="D48" s="63" t="s">
+        <v>77</v>
+      </c>
+      <c r="E48" s="67" t="s">
+        <v>291</v>
+      </c>
+      <c r="F48" s="67" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A50" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="B50" s="74">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="B51" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="C51" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="B16" s="182">
-        <v>4.3899999999999997</v>
-      </c>
-      <c r="C16" s="184" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="36" t="s">
+      <c r="D51" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="B17" s="28" t="s">
+      <c r="E51" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="F51" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="C17" s="183" t="s">
-        <v>76</v>
-      </c>
-      <c r="D17" s="29" t="s">
+    </row>
+    <row r="52" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A52" s="167" t="s">
+        <v>71</v>
+      </c>
+      <c r="B52" s="61">
+        <v>1</v>
+      </c>
+      <c r="C52" s="65" t="s">
+        <v>277</v>
+      </c>
+      <c r="D52" s="168" t="s">
         <v>77</v>
       </c>
-      <c r="E17" s="29" t="s">
+      <c r="E52" s="168" t="s">
+        <v>278</v>
+      </c>
+      <c r="F52" s="67" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A54" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="B54" s="74">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="B55" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="C55" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="D55" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="F17" s="29" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A18" s="167" t="s">
+      <c r="E55" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="F55" s="29" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A56" s="167" t="s">
+        <v>71</v>
+      </c>
+      <c r="B56" s="61">
+        <v>1</v>
+      </c>
+      <c r="C56" s="65" t="s">
+        <v>271</v>
+      </c>
+      <c r="D56" s="168" t="s">
+        <v>272</v>
+      </c>
+      <c r="E56" s="168" t="s">
+        <v>77</v>
+      </c>
+      <c r="F56" s="67" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A58" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="B58" s="74">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="B59" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="C59" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="D59" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="B18" s="61">
+      <c r="E59" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="F59" s="29" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A60" s="177" t="s">
+        <v>71</v>
+      </c>
+      <c r="B60" s="61">
         <v>1</v>
       </c>
-      <c r="C18" s="65" t="s">
-        <v>321</v>
-      </c>
-      <c r="D18" s="63" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18" s="67" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" s="67" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="26" t="s">
+      <c r="C60" s="65" t="s">
+        <v>269</v>
+      </c>
+      <c r="D60" s="168" t="s">
+        <v>26</v>
+      </c>
+      <c r="E60" s="168" t="s">
+        <v>27</v>
+      </c>
+      <c r="F60" s="67" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A62" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="B62" s="74">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="B63" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="C63" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="B20" s="74">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="36" t="s">
+      <c r="D63" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="B21" s="28" t="s">
+      <c r="E63" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="F63" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="C21" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="D21" s="29" t="s">
+    </row>
+    <row r="64" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A64" s="167" t="s">
+        <v>71</v>
+      </c>
+      <c r="B64" s="61">
+        <v>1</v>
+      </c>
+      <c r="C64" s="65" t="s">
+        <v>256</v>
+      </c>
+      <c r="D64" s="168" t="s">
         <v>77</v>
       </c>
-      <c r="E21" s="29" t="s">
+      <c r="E64" s="168" t="s">
+        <v>257</v>
+      </c>
+      <c r="F64" s="67" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="A66" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="B66" s="74">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A67" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="B67" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="C67" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="D67" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="F21" s="29" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="167" t="s">
-        <v>74</v>
-      </c>
-      <c r="B22" s="61">
-        <v>1</v>
-      </c>
-      <c r="C22" s="65" t="s">
-        <v>280</v>
-      </c>
-      <c r="D22" s="63" t="s">
-        <v>80</v>
-      </c>
-      <c r="E22" s="67" t="s">
-        <v>318</v>
-      </c>
-      <c r="F22" s="67" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A24" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="B24" s="74">
-        <v>4.2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="36" t="s">
-        <v>74</v>
-      </c>
-      <c r="B25" s="28" t="s">
+      <c r="E67" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="F67" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="C25" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="D25" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="E25" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="F25" s="29" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A26" s="167" t="s">
-        <v>74</v>
-      </c>
-      <c r="B26" s="61">
-        <v>1</v>
-      </c>
-      <c r="C26" s="65" t="s">
-        <v>280</v>
-      </c>
-      <c r="D26" s="63" t="s">
-        <v>80</v>
-      </c>
-      <c r="E26" s="67" t="s">
-        <v>312</v>
-      </c>
-      <c r="F26" s="67" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A28" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="B28" s="74">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="36" t="s">
-        <v>74</v>
-      </c>
-      <c r="B29" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="C29" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="D29" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="E29" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="F29" s="29" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A30" s="177" t="s">
-        <v>74</v>
-      </c>
-      <c r="B30" s="61">
-        <v>1</v>
-      </c>
-      <c r="C30" s="65" t="s">
-        <v>94</v>
-      </c>
-      <c r="D30" s="63" t="s">
-        <v>80</v>
-      </c>
-      <c r="E30" s="67" t="s">
-        <v>284</v>
-      </c>
-      <c r="F30" s="67" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A31" s="177" t="s">
-        <v>74</v>
-      </c>
-      <c r="B31" s="61">
-        <v>2</v>
-      </c>
-      <c r="C31" s="65" t="s">
-        <v>94</v>
-      </c>
-      <c r="D31" s="63" t="s">
-        <v>80</v>
-      </c>
-      <c r="E31" s="67" t="s">
-        <v>286</v>
-      </c>
-      <c r="F31" s="67" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A32" s="177" t="s">
-        <v>74</v>
-      </c>
-      <c r="B32" s="61">
-        <v>3</v>
-      </c>
-      <c r="C32" s="65" t="s">
-        <v>303</v>
-      </c>
-      <c r="D32" s="63" t="s">
-        <v>304</v>
-      </c>
-      <c r="E32" s="67" t="s">
-        <v>305</v>
-      </c>
-      <c r="F32" s="67" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A33" s="177" t="s">
-        <v>74</v>
-      </c>
-      <c r="B33" s="61">
-        <v>4</v>
-      </c>
-      <c r="C33" s="65" t="s">
-        <v>300</v>
-      </c>
-      <c r="D33" s="63" t="s">
-        <v>80</v>
-      </c>
-      <c r="E33" s="67" t="s">
-        <v>301</v>
-      </c>
-      <c r="F33" s="67" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A34" s="167" t="s">
-        <v>74</v>
-      </c>
-      <c r="B34" s="61">
-        <v>5</v>
-      </c>
-      <c r="C34" s="65" t="s">
-        <v>293</v>
-      </c>
-      <c r="D34" s="63" t="s">
-        <v>80</v>
-      </c>
-      <c r="E34" s="67" t="s">
-        <v>294</v>
-      </c>
-      <c r="F34" s="67" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A36" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="B36" s="74">
-        <v>3.6</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="36" t="s">
-        <v>74</v>
-      </c>
-      <c r="B37" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="C37" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="D37" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="E37" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="F37" s="29" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="167" t="s">
-        <v>74</v>
-      </c>
-      <c r="B38" s="61">
-        <v>1</v>
-      </c>
-      <c r="C38" s="65" t="s">
-        <v>280</v>
-      </c>
-      <c r="D38" s="168" t="s">
-        <v>80</v>
-      </c>
-      <c r="E38" s="168" t="s">
-        <v>281</v>
-      </c>
-      <c r="F38" s="67" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A40" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="B40" s="74">
-        <v>3.4</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="36" t="s">
-        <v>74</v>
-      </c>
-      <c r="B41" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="C41" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="D41" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="E41" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="F41" s="29" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A42" s="167" t="s">
-        <v>74</v>
-      </c>
-      <c r="B42" s="61">
-        <v>1</v>
-      </c>
-      <c r="C42" s="65" t="s">
-        <v>274</v>
-      </c>
-      <c r="D42" s="168" t="s">
-        <v>275</v>
-      </c>
-      <c r="E42" s="168" t="s">
-        <v>80</v>
-      </c>
-      <c r="F42" s="67" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A44" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="B44" s="74">
-        <v>3.3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="36" t="s">
-        <v>74</v>
-      </c>
-      <c r="B45" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="C45" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="D45" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="E45" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="F45" s="29" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A46" s="177" t="s">
-        <v>74</v>
-      </c>
-      <c r="B46" s="61">
-        <v>1</v>
-      </c>
-      <c r="C46" s="65" t="s">
-        <v>272</v>
-      </c>
-      <c r="D46" s="168" t="s">
-        <v>26</v>
-      </c>
-      <c r="E46" s="168" t="s">
-        <v>27</v>
-      </c>
-      <c r="F46" s="67" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A48" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="B48" s="74">
-        <v>3.2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A49" s="36" t="s">
-        <v>74</v>
-      </c>
-      <c r="B49" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="C49" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="D49" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="E49" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="F49" s="29" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="50" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A50" s="167" t="s">
-        <v>74</v>
-      </c>
-      <c r="B50" s="61">
-        <v>1</v>
-      </c>
-      <c r="C50" s="65" t="s">
-        <v>259</v>
-      </c>
-      <c r="D50" s="168" t="s">
-        <v>80</v>
-      </c>
-      <c r="E50" s="168" t="s">
-        <v>260</v>
-      </c>
-      <c r="F50" s="67" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="52" spans="1:18" ht="15" x14ac:dyDescent="0.25">
-      <c r="A52" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="B52" s="74">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A53" s="36" t="s">
-        <v>74</v>
-      </c>
-      <c r="B53" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="C53" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="D53" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="E53" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="F53" s="29" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="54" spans="1:18" ht="45" x14ac:dyDescent="0.25">
-      <c r="A54" s="48" t="s">
-        <v>74</v>
-      </c>
-      <c r="B54" s="62">
-        <v>1</v>
-      </c>
-      <c r="C54" s="64" t="s">
-        <v>111</v>
-      </c>
-      <c r="D54" s="63" t="s">
-        <v>80</v>
-      </c>
-      <c r="E54" s="64" t="s">
-        <v>106</v>
-      </c>
-      <c r="F54" s="64" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="55" spans="1:18" ht="15" x14ac:dyDescent="0.25">
-      <c r="A55" s="48"/>
-      <c r="B55" s="61">
-        <v>2</v>
-      </c>
-      <c r="C55" s="65" t="s">
-        <v>111</v>
-      </c>
-      <c r="D55" s="63" t="s">
-        <v>80</v>
-      </c>
-      <c r="E55" s="67" t="s">
-        <v>109</v>
-      </c>
-      <c r="F55" s="67" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="56" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A56" s="48" t="s">
-        <v>74</v>
-      </c>
-      <c r="B56" s="62">
-        <v>3</v>
-      </c>
-      <c r="C56" s="67" t="s">
-        <v>111</v>
-      </c>
-      <c r="D56" s="61" t="s">
-        <v>80</v>
-      </c>
-      <c r="E56" s="67" t="s">
-        <v>245</v>
-      </c>
-      <c r="F56" s="67" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="57" spans="1:18" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="48" t="s">
-        <v>74</v>
-      </c>
-      <c r="B57" s="61">
-        <v>4</v>
-      </c>
-      <c r="C57" s="65" t="s">
-        <v>219</v>
-      </c>
-      <c r="D57" s="63" t="s">
-        <v>220</v>
-      </c>
-      <c r="E57" s="67" t="s">
-        <v>221</v>
-      </c>
-      <c r="F57" s="67" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="58" spans="1:18" ht="30" x14ac:dyDescent="0.3">
-      <c r="A58" s="164" t="s">
-        <v>74</v>
-      </c>
-      <c r="B58" s="62">
-        <v>5</v>
-      </c>
-      <c r="C58" s="65" t="s">
-        <v>94</v>
-      </c>
-      <c r="D58" s="155" t="s">
-        <v>80</v>
-      </c>
-      <c r="E58" s="67" t="s">
-        <v>232</v>
-      </c>
-      <c r="F58" s="67" t="s">
-        <v>233</v>
-      </c>
-      <c r="G58" s="156"/>
-      <c r="H58" s="156"/>
-      <c r="I58" s="156"/>
-      <c r="J58" s="156"/>
-      <c r="K58" s="156"/>
-      <c r="L58" s="156"/>
-      <c r="M58" s="156"/>
-      <c r="N58" s="156"/>
-      <c r="O58" s="156"/>
-      <c r="P58" s="156"/>
-      <c r="Q58" s="156"/>
-      <c r="R58" s="156"/>
-    </row>
-    <row r="59" spans="1:18" ht="45" x14ac:dyDescent="0.3">
-      <c r="A59" s="106" t="s">
-        <v>74</v>
-      </c>
-      <c r="B59" s="61">
-        <v>6</v>
-      </c>
-      <c r="C59" s="65" t="s">
-        <v>94</v>
-      </c>
-      <c r="D59" s="163" t="s">
-        <v>104</v>
-      </c>
-      <c r="E59" s="163" t="s">
-        <v>242</v>
-      </c>
-      <c r="F59" s="67" t="s">
-        <v>243</v>
-      </c>
-      <c r="G59" s="156"/>
-      <c r="H59" s="156"/>
-      <c r="I59" s="156"/>
-      <c r="J59" s="156"/>
-      <c r="K59" s="156"/>
-      <c r="L59" s="156"/>
-      <c r="M59" s="156"/>
-      <c r="N59" s="156"/>
-      <c r="O59" s="156"/>
-      <c r="P59" s="156"/>
-      <c r="Q59" s="156"/>
-      <c r="R59" s="156"/>
-    </row>
-    <row r="61" spans="1:18" ht="15" x14ac:dyDescent="0.25">
-      <c r="A61" s="154" t="s">
-        <v>73</v>
-      </c>
-      <c r="B61" s="153">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="C61" s="77"/>
-      <c r="D61" s="77"/>
-      <c r="E61" s="77"/>
-      <c r="F61" s="77"/>
-    </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A62" s="57" t="s">
-        <v>74</v>
-      </c>
-      <c r="B62" s="152" t="s">
-        <v>75</v>
-      </c>
-      <c r="C62" s="150" t="s">
-        <v>76</v>
-      </c>
-      <c r="D62" s="151" t="s">
-        <v>77</v>
-      </c>
-      <c r="E62" s="150" t="s">
-        <v>74</v>
-      </c>
-      <c r="F62" s="150" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="63" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A63" s="149" t="s">
-        <v>74</v>
-      </c>
-      <c r="B63" s="147">
-        <v>1</v>
-      </c>
-      <c r="C63" s="67" t="s">
-        <v>228</v>
-      </c>
-      <c r="D63" s="147" t="s">
-        <v>13</v>
-      </c>
-      <c r="E63" s="67" t="s">
-        <v>227</v>
-      </c>
-      <c r="F63" s="67" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="64" spans="1:18" ht="60" x14ac:dyDescent="0.25">
-      <c r="A64" s="148" t="s">
-        <v>74</v>
-      </c>
-      <c r="B64" s="67">
-        <v>2</v>
-      </c>
-      <c r="C64" s="67" t="s">
-        <v>94</v>
-      </c>
-      <c r="D64" s="147" t="s">
-        <v>225</v>
-      </c>
-      <c r="E64" s="67" t="s">
-        <v>224</v>
-      </c>
-      <c r="F64" s="67" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" s="59" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="66" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A66" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="B66" s="74">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="36" t="s">
-        <v>74</v>
-      </c>
-      <c r="B67" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="C67" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="D67" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="E67" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="F67" s="29" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A68" s="48" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B68" s="62">
         <v>1</v>
       </c>
       <c r="C68" s="64" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="D68" s="63" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E68" s="64" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="F68" s="64" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A69" s="66"/>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="A69" s="48"/>
       <c r="B69" s="61">
         <v>2</v>
       </c>
       <c r="C69" s="65" t="s">
+        <v>108</v>
+      </c>
+      <c r="D69" s="63" t="s">
+        <v>77</v>
+      </c>
+      <c r="E69" s="67" t="s">
+        <v>106</v>
+      </c>
+      <c r="F69" s="67" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A70" s="48" t="s">
+        <v>71</v>
+      </c>
+      <c r="B70" s="62">
+        <v>3</v>
+      </c>
+      <c r="C70" s="67" t="s">
+        <v>108</v>
+      </c>
+      <c r="D70" s="61" t="s">
+        <v>77</v>
+      </c>
+      <c r="E70" s="67" t="s">
+        <v>242</v>
+      </c>
+      <c r="F70" s="67" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="48" t="s">
+        <v>71</v>
+      </c>
+      <c r="B71" s="61">
+        <v>4</v>
+      </c>
+      <c r="C71" s="65" t="s">
+        <v>216</v>
+      </c>
+      <c r="D71" s="63" t="s">
+        <v>217</v>
+      </c>
+      <c r="E71" s="67" t="s">
+        <v>218</v>
+      </c>
+      <c r="F71" s="67" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" ht="30" x14ac:dyDescent="0.3">
+      <c r="A72" s="164" t="s">
+        <v>71</v>
+      </c>
+      <c r="B72" s="62">
+        <v>5</v>
+      </c>
+      <c r="C72" s="65" t="s">
+        <v>91</v>
+      </c>
+      <c r="D72" s="155" t="s">
+        <v>77</v>
+      </c>
+      <c r="E72" s="67" t="s">
+        <v>229</v>
+      </c>
+      <c r="F72" s="67" t="s">
+        <v>230</v>
+      </c>
+      <c r="G72" s="156"/>
+      <c r="H72" s="156"/>
+      <c r="I72" s="156"/>
+      <c r="J72" s="156"/>
+      <c r="K72" s="156"/>
+      <c r="L72" s="156"/>
+      <c r="M72" s="156"/>
+      <c r="N72" s="156"/>
+      <c r="O72" s="156"/>
+      <c r="P72" s="156"/>
+      <c r="Q72" s="156"/>
+      <c r="R72" s="156"/>
+    </row>
+    <row r="73" spans="1:18" ht="45" x14ac:dyDescent="0.3">
+      <c r="A73" s="106" t="s">
+        <v>71</v>
+      </c>
+      <c r="B73" s="61">
+        <v>6</v>
+      </c>
+      <c r="C73" s="65" t="s">
+        <v>91</v>
+      </c>
+      <c r="D73" s="163" t="s">
+        <v>101</v>
+      </c>
+      <c r="E73" s="163" t="s">
+        <v>239</v>
+      </c>
+      <c r="F73" s="67" t="s">
+        <v>240</v>
+      </c>
+      <c r="G73" s="156"/>
+      <c r="H73" s="156"/>
+      <c r="I73" s="156"/>
+      <c r="J73" s="156"/>
+      <c r="K73" s="156"/>
+      <c r="L73" s="156"/>
+      <c r="M73" s="156"/>
+      <c r="N73" s="156"/>
+      <c r="O73" s="156"/>
+      <c r="P73" s="156"/>
+      <c r="Q73" s="156"/>
+      <c r="R73" s="156"/>
+    </row>
+    <row r="75" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="A75" s="154" t="s">
+        <v>70</v>
+      </c>
+      <c r="B75" s="153">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C75" s="77"/>
+      <c r="D75" s="77"/>
+      <c r="E75" s="77"/>
+      <c r="F75" s="77"/>
+    </row>
+    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A76" s="57" t="s">
+        <v>71</v>
+      </c>
+      <c r="B76" s="152" t="s">
+        <v>72</v>
+      </c>
+      <c r="C76" s="150" t="s">
+        <v>73</v>
+      </c>
+      <c r="D76" s="151" t="s">
+        <v>74</v>
+      </c>
+      <c r="E76" s="150" t="s">
+        <v>71</v>
+      </c>
+      <c r="F76" s="150" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A77" s="149" t="s">
+        <v>71</v>
+      </c>
+      <c r="B77" s="147">
+        <v>1</v>
+      </c>
+      <c r="C77" s="67" t="s">
+        <v>225</v>
+      </c>
+      <c r="D77" s="147" t="s">
+        <v>13</v>
+      </c>
+      <c r="E77" s="67" t="s">
+        <v>224</v>
+      </c>
+      <c r="F77" s="67" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+      <c r="A78" s="148" t="s">
+        <v>71</v>
+      </c>
+      <c r="B78" s="67">
+        <v>2</v>
+      </c>
+      <c r="C78" s="67" t="s">
+        <v>91</v>
+      </c>
+      <c r="D78" s="147" t="s">
+        <v>222</v>
+      </c>
+      <c r="E78" s="67" t="s">
+        <v>221</v>
+      </c>
+      <c r="F78" s="67" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18" s="59" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="80" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="A80" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="B80" s="74">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="B81" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="C81" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="D81" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="E81" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="F81" s="29" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A82" s="48" t="s">
+        <v>71</v>
+      </c>
+      <c r="B82" s="62">
+        <v>1</v>
+      </c>
+      <c r="C82" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="D82" s="63" t="s">
+        <v>77</v>
+      </c>
+      <c r="E82" s="64" t="s">
+        <v>93</v>
+      </c>
+      <c r="F82" s="64" t="s">
         <v>94</v>
       </c>
-      <c r="D69" s="63" t="s">
+    </row>
+    <row r="83" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A83" s="66"/>
+      <c r="B83" s="61">
+        <v>2</v>
+      </c>
+      <c r="C83" s="65" t="s">
+        <v>91</v>
+      </c>
+      <c r="D83" s="63" t="s">
+        <v>77</v>
+      </c>
+      <c r="E83" s="67" t="s">
+        <v>107</v>
+      </c>
+      <c r="F83" s="67" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A85" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="B85" s="27">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="B86" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="C86" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="D86" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="E86" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="F86" s="29" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A87" s="48" t="s">
+        <v>71</v>
+      </c>
+      <c r="B87" s="30">
+        <v>1</v>
+      </c>
+      <c r="C87" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="D87" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="E87" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="F87" s="31" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A88" s="49" t="s">
+        <v>71</v>
+      </c>
+      <c r="B88" s="30">
+        <v>2</v>
+      </c>
+      <c r="C88" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="E69" s="67" t="s">
-        <v>110</v>
-      </c>
-      <c r="F69" s="67" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A71" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="B71" s="27">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="36" t="s">
-        <v>74</v>
-      </c>
-      <c r="B72" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="C72" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="D72" s="29" t="s">
+      <c r="D88" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="E72" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="F72" s="29" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A73" s="48" t="s">
-        <v>74</v>
-      </c>
-      <c r="B73" s="30">
-        <v>1</v>
-      </c>
-      <c r="C73" s="31" t="s">
-        <v>79</v>
-      </c>
-      <c r="D73" s="31" t="s">
-        <v>80</v>
-      </c>
-      <c r="E73" s="31" t="s">
+      <c r="E88" s="31" t="s">
+        <v>311</v>
+      </c>
+      <c r="F88" s="31" t="s">
         <v>81</v>
-      </c>
-      <c r="F73" s="31" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A74" s="49" t="s">
-        <v>74</v>
-      </c>
-      <c r="B74" s="30">
-        <v>2</v>
-      </c>
-      <c r="C74" s="31" t="s">
-        <v>83</v>
-      </c>
-      <c r="D74" s="31" t="s">
-        <v>80</v>
-      </c>
-      <c r="E74" s="31" t="s">
-        <v>314</v>
-      </c>
-      <c r="F74" s="31" t="s">
-        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -4635,33 +4922,33 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="36" t="s">
+        <v>259</v>
+      </c>
+      <c r="B1" s="169" t="s">
+        <v>260</v>
+      </c>
+      <c r="C1" s="170" t="s">
+        <v>261</v>
+      </c>
+      <c r="D1" s="170" t="s">
         <v>262</v>
       </c>
-      <c r="B1" s="169" t="s">
+      <c r="E1" s="170" t="s">
         <v>263</v>
-      </c>
-      <c r="C1" s="170" t="s">
-        <v>264</v>
-      </c>
-      <c r="D1" s="170" t="s">
-        <v>265</v>
-      </c>
-      <c r="E1" s="170" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="164" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B2" s="171" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C2" s="172" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D2" s="173" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E2" s="174" t="s">
         <v>13</v>
@@ -4669,16 +4956,16 @@
     </row>
     <row r="3" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="164" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B3" s="175" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C3" s="65" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D3" s="168" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="E3" s="174" t="s">
         <v>13</v>
@@ -4686,19 +4973,19 @@
     </row>
     <row r="4" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A4" s="176" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B4" s="175" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C4" s="65" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D4" s="168" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="E4" s="65" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
   </sheetData>
@@ -4717,18 +5004,18 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="69" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B1" s="81" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="73" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B2" s="80" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -4740,30 +5027,30 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="72" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B4" s="83" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C4" s="83" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="D4" s="83" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="73" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B5" s="79" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C5" s="80" t="s">
         <v>13</v>
       </c>
       <c r="D5" s="80" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -4774,7 +5061,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
@@ -4789,33 +5076,33 @@
   <sheetData>
     <row r="1" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A1" s="75" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B1" s="81" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C1" s="82" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D1" s="83" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E1" s="82" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F1" s="82" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="88" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B2" s="101" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C2" s="101" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D2" s="80" t="s">
         <v>13</v>
@@ -4829,13 +5116,13 @@
     </row>
     <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="88" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B3" s="101" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C3" s="101" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D3" s="80" t="s">
         <v>13</v>
@@ -4849,13 +5136,13 @@
     </row>
     <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="88" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B4" s="101" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C4" s="101" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D4" s="80" t="s">
         <v>13</v>
@@ -4869,13 +5156,13 @@
     </row>
     <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="88" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B5" s="100" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C5" s="100" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D5" s="80" t="s">
         <v>13</v>
@@ -4889,13 +5176,13 @@
     </row>
     <row r="6" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="88" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B6" s="101" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C6" s="100" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D6" s="80" t="s">
         <v>13</v>
@@ -4907,55 +5194,55 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="88" t="s">
-        <v>240</v>
-      </c>
-      <c r="B7" s="102" t="s">
-        <v>236</v>
-      </c>
-      <c r="C7" s="102" t="s">
+    <row r="7" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="39" t="s">
         <v>237</v>
       </c>
-      <c r="D7" s="80" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="80" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="80" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="88" t="s">
-        <v>240</v>
-      </c>
-      <c r="B8" s="102" t="s">
-        <v>216</v>
-      </c>
-      <c r="C8" s="102" t="s">
-        <v>190</v>
-      </c>
-      <c r="D8" s="80" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="80" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="80" t="s">
+      <c r="B7" s="30" t="s">
+        <v>368</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>369</v>
+      </c>
+      <c r="D7" s="128" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="128" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="128" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="39" t="s">
+        <v>237</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>370</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>371</v>
+      </c>
+      <c r="D8" s="128" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="128" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="128" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="88" t="s">
-        <v>240</v>
-      </c>
-      <c r="B9" s="100" t="s">
-        <v>122</v>
-      </c>
-      <c r="C9" s="100" t="s">
-        <v>124</v>
+        <v>237</v>
+      </c>
+      <c r="B9" s="102" t="s">
+        <v>233</v>
+      </c>
+      <c r="C9" s="102" t="s">
+        <v>234</v>
       </c>
       <c r="D9" s="80" t="s">
         <v>13</v>
@@ -4969,13 +5256,13 @@
     </row>
     <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="88" t="s">
-        <v>240</v>
-      </c>
-      <c r="B10" s="100" t="s">
-        <v>121</v>
-      </c>
-      <c r="C10" s="100" t="s">
-        <v>125</v>
+        <v>237</v>
+      </c>
+      <c r="B10" s="102" t="s">
+        <v>213</v>
+      </c>
+      <c r="C10" s="102" t="s">
+        <v>187</v>
       </c>
       <c r="D10" s="80" t="s">
         <v>13</v>
@@ -4989,13 +5276,13 @@
     </row>
     <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="88" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B11" s="100" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C11" s="100" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D11" s="80" t="s">
         <v>13</v>
@@ -5009,13 +5296,13 @@
     </row>
     <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="88" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B12" s="100" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C12" s="100" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D12" s="80" t="s">
         <v>13</v>
@@ -5029,13 +5316,13 @@
     </row>
     <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="88" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B13" s="100" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C13" s="100" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D13" s="80" t="s">
         <v>13</v>
@@ -5047,15 +5334,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="88" t="s">
-        <v>240</v>
-      </c>
-      <c r="B14" s="101" t="s">
-        <v>130</v>
+        <v>237</v>
+      </c>
+      <c r="B14" s="100" t="s">
+        <v>116</v>
       </c>
       <c r="C14" s="100" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="D14" s="80" t="s">
         <v>13</v>
@@ -5067,15 +5354,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="88" t="s">
-        <v>240</v>
-      </c>
-      <c r="B15" s="101" t="s">
-        <v>138</v>
+        <v>237</v>
+      </c>
+      <c r="B15" s="100" t="s">
+        <v>115</v>
       </c>
       <c r="C15" s="100" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="D15" s="80" t="s">
         <v>13</v>
@@ -5089,54 +5376,54 @@
     </row>
     <row r="16" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="88" t="s">
-        <v>240</v>
-      </c>
-      <c r="B16" s="100" t="s">
+        <v>237</v>
+      </c>
+      <c r="B16" s="101" t="s">
+        <v>127</v>
+      </c>
+      <c r="C16" s="100" t="s">
+        <v>126</v>
+      </c>
+      <c r="D16" s="80" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="80" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="80" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="88" t="s">
+        <v>237</v>
+      </c>
+      <c r="B17" s="101" t="s">
+        <v>135</v>
+      </c>
+      <c r="C17" s="100" t="s">
+        <v>136</v>
+      </c>
+      <c r="D17" s="80" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="80" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="80" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="88" t="s">
+        <v>237</v>
+      </c>
+      <c r="B18" s="100" t="s">
+        <v>134</v>
+      </c>
+      <c r="C18" s="100" t="s">
         <v>137</v>
       </c>
-      <c r="C16" s="100" t="s">
-        <v>140</v>
-      </c>
-      <c r="D16" s="80" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16" s="80" t="s">
-        <v>13</v>
-      </c>
-      <c r="F16" s="80" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="88" t="s">
-        <v>240</v>
-      </c>
-      <c r="B17" s="100" t="s">
-        <v>136</v>
-      </c>
-      <c r="C17" s="100" t="s">
-        <v>141</v>
-      </c>
-      <c r="D17" s="80" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="80" t="s">
-        <v>13</v>
-      </c>
-      <c r="F17" s="80" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="88" t="s">
-        <v>240</v>
-      </c>
-      <c r="B18" s="100" t="s">
-        <v>135</v>
-      </c>
-      <c r="C18" s="100" t="s">
-        <v>142</v>
-      </c>
       <c r="D18" s="80" t="s">
         <v>13</v>
       </c>
@@ -5147,15 +5434,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="88" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B19" s="100" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C19" s="100" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D19" s="80" t="s">
         <v>13</v>
@@ -5169,13 +5456,13 @@
     </row>
     <row r="20" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="88" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B20" s="100" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C20" s="100" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="D20" s="80" t="s">
         <v>13</v>
@@ -5189,13 +5476,13 @@
     </row>
     <row r="21" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="88" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B21" s="100" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C21" s="100" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D21" s="80" t="s">
         <v>13</v>
@@ -5207,15 +5494,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="88" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B22" s="100" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C22" s="100" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D22" s="80" t="s">
         <v>13</v>
@@ -5229,13 +5516,13 @@
     </row>
     <row r="23" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="88" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B23" s="100" t="s">
-        <v>149</v>
+        <v>129</v>
       </c>
       <c r="C23" s="100" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="D23" s="80" t="s">
         <v>13</v>
@@ -5249,314 +5536,400 @@
     </row>
     <row r="24" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="88" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B24" s="100" t="s">
+        <v>128</v>
+      </c>
+      <c r="C24" s="100" t="s">
+        <v>143</v>
+      </c>
+      <c r="D24" s="80" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" s="80" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" s="80" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A25" s="88" t="s">
+        <v>237</v>
+      </c>
+      <c r="B25" s="100" t="s">
+        <v>146</v>
+      </c>
+      <c r="C25" s="100" t="s">
+        <v>147</v>
+      </c>
+      <c r="D25" s="80" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" s="80" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25" s="80" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A26" s="88" t="s">
+        <v>237</v>
+      </c>
+      <c r="B26" s="100" t="s">
+        <v>145</v>
+      </c>
+      <c r="C26" s="100" t="s">
         <v>148</v>
       </c>
-      <c r="C24" s="100" t="s">
+      <c r="D26" s="80" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26" s="80" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26" s="80" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="88" t="s">
+        <v>237</v>
+      </c>
+      <c r="B27" s="100" t="s">
+        <v>144</v>
+      </c>
+      <c r="C27" s="100" t="s">
+        <v>149</v>
+      </c>
+      <c r="D27" s="80" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27" s="80" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" s="80" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A28" s="88" t="s">
+        <v>237</v>
+      </c>
+      <c r="B28" s="100" t="s">
+        <v>150</v>
+      </c>
+      <c r="C28" s="100" t="s">
+        <v>154</v>
+      </c>
+      <c r="D28" s="80" t="s">
+        <v>13</v>
+      </c>
+      <c r="E28" s="80" t="s">
+        <v>13</v>
+      </c>
+      <c r="F28" s="80" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A29" s="88" t="s">
+        <v>237</v>
+      </c>
+      <c r="B29" s="100" t="s">
         <v>151</v>
       </c>
-      <c r="D24" s="80" t="s">
-        <v>13</v>
-      </c>
-      <c r="E24" s="80" t="s">
-        <v>13</v>
-      </c>
-      <c r="F24" s="80" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="88" t="s">
-        <v>240</v>
-      </c>
-      <c r="B25" s="100" t="s">
-        <v>147</v>
-      </c>
-      <c r="C25" s="100" t="s">
+      <c r="C29" s="100" t="s">
+        <v>155</v>
+      </c>
+      <c r="D29" s="80" t="s">
+        <v>13</v>
+      </c>
+      <c r="E29" s="80" t="s">
+        <v>13</v>
+      </c>
+      <c r="F29" s="80" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A30" s="88" t="s">
+        <v>237</v>
+      </c>
+      <c r="B30" s="100" t="s">
         <v>152</v>
       </c>
-      <c r="D25" s="80" t="s">
-        <v>13</v>
-      </c>
-      <c r="E25" s="80" t="s">
-        <v>13</v>
-      </c>
-      <c r="F25" s="80" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A26" s="88" t="s">
-        <v>240</v>
-      </c>
-      <c r="B26" s="100" t="s">
+      <c r="C30" s="101" t="s">
+        <v>246</v>
+      </c>
+      <c r="D30" s="80" t="s">
+        <v>13</v>
+      </c>
+      <c r="E30" s="80" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30" s="80" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A31" s="88" t="s">
+        <v>237</v>
+      </c>
+      <c r="B31" s="100" t="s">
         <v>153</v>
       </c>
-      <c r="C26" s="100" t="s">
+      <c r="C31" s="100" t="s">
+        <v>156</v>
+      </c>
+      <c r="D31" s="80" t="s">
+        <v>13</v>
+      </c>
+      <c r="E31" s="80" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" s="80" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A32" s="88" t="s">
+        <v>237</v>
+      </c>
+      <c r="B32" s="101" t="s">
+        <v>180</v>
+      </c>
+      <c r="C32" s="101" t="s">
+        <v>245</v>
+      </c>
+      <c r="D32" s="80" t="s">
+        <v>13</v>
+      </c>
+      <c r="E32" s="80" t="s">
+        <v>13</v>
+      </c>
+      <c r="F32" s="80" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="88" t="s">
+        <v>237</v>
+      </c>
+      <c r="B33" s="101" t="s">
+        <v>160</v>
+      </c>
+      <c r="C33" s="100" t="s">
         <v>157</v>
       </c>
-      <c r="D26" s="80" t="s">
-        <v>13</v>
-      </c>
-      <c r="E26" s="80" t="s">
-        <v>13</v>
-      </c>
-      <c r="F26" s="80" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A27" s="88" t="s">
-        <v>240</v>
-      </c>
-      <c r="B27" s="100" t="s">
-        <v>154</v>
-      </c>
-      <c r="C27" s="100" t="s">
+      <c r="D33" s="80" t="s">
+        <v>13</v>
+      </c>
+      <c r="E33" s="80" t="s">
+        <v>13</v>
+      </c>
+      <c r="F33" s="80" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="180" x14ac:dyDescent="0.25">
+      <c r="A34" s="88" t="s">
+        <v>237</v>
+      </c>
+      <c r="B34" s="185" t="s">
+        <v>356</v>
+      </c>
+      <c r="C34" s="186" t="s">
+        <v>335</v>
+      </c>
+      <c r="D34" s="187" t="s">
+        <v>336</v>
+      </c>
+      <c r="E34" s="80" t="s">
+        <v>13</v>
+      </c>
+      <c r="F34" s="80" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="A35" s="88" t="s">
+        <v>237</v>
+      </c>
+      <c r="B35" s="101" t="s">
+        <v>161</v>
+      </c>
+      <c r="C35" s="100" t="s">
         <v>158</v>
       </c>
-      <c r="D27" s="80" t="s">
-        <v>13</v>
-      </c>
-      <c r="E27" s="80" t="s">
-        <v>13</v>
-      </c>
-      <c r="F27" s="80" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A28" s="88" t="s">
-        <v>240</v>
-      </c>
-      <c r="B28" s="100" t="s">
-        <v>155</v>
-      </c>
-      <c r="C28" s="101" t="s">
-        <v>249</v>
-      </c>
-      <c r="D28" s="80" t="s">
-        <v>13</v>
-      </c>
-      <c r="E28" s="80" t="s">
-        <v>13</v>
-      </c>
-      <c r="F28" s="80" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A29" s="88" t="s">
-        <v>240</v>
-      </c>
-      <c r="B29" s="100" t="s">
-        <v>156</v>
-      </c>
-      <c r="C29" s="100" t="s">
+      <c r="D35" s="80" t="s">
+        <v>13</v>
+      </c>
+      <c r="E35" s="80" t="s">
+        <v>13</v>
+      </c>
+      <c r="F35" s="80" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="88" t="s">
+        <v>237</v>
+      </c>
+      <c r="B36" s="101" t="s">
+        <v>162</v>
+      </c>
+      <c r="C36" s="100" t="s">
         <v>159</v>
       </c>
-      <c r="D29" s="80" t="s">
-        <v>13</v>
-      </c>
-      <c r="E29" s="80" t="s">
-        <v>13</v>
-      </c>
-      <c r="F29" s="80" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A30" s="88" t="s">
-        <v>240</v>
-      </c>
-      <c r="B30" s="101" t="s">
-        <v>183</v>
-      </c>
-      <c r="C30" s="101" t="s">
-        <v>248</v>
-      </c>
-      <c r="D30" s="80" t="s">
-        <v>13</v>
-      </c>
-      <c r="E30" s="80" t="s">
-        <v>13</v>
-      </c>
-      <c r="F30" s="80" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="88" t="s">
-        <v>240</v>
-      </c>
-      <c r="B31" s="101" t="s">
-        <v>163</v>
-      </c>
-      <c r="C31" s="100" t="s">
-        <v>160</v>
-      </c>
-      <c r="D31" s="80" t="s">
-        <v>13</v>
-      </c>
-      <c r="E31" s="80" t="s">
-        <v>13</v>
-      </c>
-      <c r="F31" s="80" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="180" x14ac:dyDescent="0.25">
-      <c r="A32" s="88" t="s">
-        <v>240</v>
-      </c>
-      <c r="B32" s="185" t="s">
-        <v>337</v>
-      </c>
-      <c r="C32" s="186" t="s">
-        <v>338</v>
-      </c>
-      <c r="D32" s="187" t="s">
-        <v>339</v>
-      </c>
-      <c r="E32" s="80" t="s">
-        <v>13</v>
-      </c>
-      <c r="F32" s="80" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="120" x14ac:dyDescent="0.25">
-      <c r="A33" s="88" t="s">
-        <v>240</v>
-      </c>
-      <c r="B33" s="101" t="s">
-        <v>164</v>
-      </c>
-      <c r="C33" s="100" t="s">
-        <v>161</v>
-      </c>
-      <c r="D33" s="80" t="s">
-        <v>13</v>
-      </c>
-      <c r="E33" s="80" t="s">
-        <v>13</v>
-      </c>
-      <c r="F33" s="80" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="88" t="s">
-        <v>240</v>
-      </c>
-      <c r="B34" s="101" t="s">
-        <v>165</v>
-      </c>
-      <c r="C34" s="100" t="s">
-        <v>162</v>
-      </c>
-      <c r="D34" s="80" t="s">
-        <v>13</v>
-      </c>
-      <c r="E34" s="80" t="s">
-        <v>13</v>
-      </c>
-      <c r="F34" s="80" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A35" s="39" t="s">
-        <v>240</v>
-      </c>
-      <c r="B35" s="101" t="s">
-        <v>310</v>
-      </c>
-      <c r="C35" s="100" t="s">
-        <v>311</v>
-      </c>
-      <c r="D35" s="80" t="s">
-        <v>13</v>
-      </c>
-      <c r="E35" s="80" t="s">
-        <v>13</v>
-      </c>
-      <c r="F35" s="80" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="40" t="s">
-        <v>240</v>
-      </c>
-      <c r="B36" s="30" t="s">
-        <v>330</v>
-      </c>
-      <c r="C36" s="30" t="s">
-        <v>331</v>
-      </c>
-      <c r="D36" s="128" t="s">
-        <v>13</v>
-      </c>
-      <c r="E36" s="128" t="s">
-        <v>13</v>
-      </c>
-      <c r="F36" s="128" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="76"/>
-      <c r="B37" s="68"/>
-      <c r="C37" s="68"/>
-      <c r="D37" s="68"/>
-      <c r="E37" s="77"/>
-    </row>
-    <row r="38" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A38" s="78" t="s">
-        <v>116</v>
-      </c>
-      <c r="B38" s="81" t="s">
-        <v>112</v>
-      </c>
-      <c r="C38" s="82" t="s">
+      <c r="D36" s="80" t="s">
+        <v>13</v>
+      </c>
+      <c r="E36" s="80" t="s">
+        <v>13</v>
+      </c>
+      <c r="F36" s="80" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A37" s="39" t="s">
+        <v>237</v>
+      </c>
+      <c r="B37" s="101" t="s">
+        <v>307</v>
+      </c>
+      <c r="C37" s="100" t="s">
+        <v>308</v>
+      </c>
+      <c r="D37" s="80" t="s">
+        <v>13</v>
+      </c>
+      <c r="E37" s="80" t="s">
+        <v>13</v>
+      </c>
+      <c r="F37" s="80" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" s="40" t="s">
+        <v>237</v>
+      </c>
+      <c r="B38" s="30" t="s">
+        <v>327</v>
+      </c>
+      <c r="C38" s="30" t="s">
+        <v>328</v>
+      </c>
+      <c r="D38" s="128" t="s">
+        <v>13</v>
+      </c>
+      <c r="E38" s="128" t="s">
+        <v>13</v>
+      </c>
+      <c r="F38" s="128" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="76"/>
+      <c r="B39" s="68"/>
+      <c r="C39" s="68"/>
+      <c r="D39" s="68"/>
+      <c r="E39" s="77"/>
+    </row>
+    <row r="40" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A40" s="78" t="s">
         <v>113</v>
       </c>
-      <c r="D38" s="83" t="s">
-        <v>171</v>
-      </c>
-      <c r="E38" s="82" t="s">
+      <c r="B40" s="81" t="s">
+        <v>109</v>
+      </c>
+      <c r="C40" s="82" t="s">
+        <v>110</v>
+      </c>
+      <c r="D40" s="83" t="s">
+        <v>168</v>
+      </c>
+      <c r="E40" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="F38" s="82" t="s">
-        <v>188</v>
-      </c>
-      <c r="G38" s="82" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A39" s="73" t="s">
-        <v>116</v>
-      </c>
-      <c r="B39" s="80" t="s">
-        <v>13</v>
-      </c>
-      <c r="C39" s="80" t="s">
-        <v>13</v>
-      </c>
-      <c r="D39" s="80" t="s">
-        <v>13</v>
-      </c>
-      <c r="E39" s="80" t="s">
-        <v>13</v>
-      </c>
-      <c r="F39" s="80" t="s">
-        <v>13</v>
-      </c>
-      <c r="G39" s="80" t="s">
+      <c r="F40" s="82" t="s">
+        <v>185</v>
+      </c>
+      <c r="G40" s="82" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A41" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="B41" s="30" t="s">
+        <v>372</v>
+      </c>
+      <c r="C41" s="30" t="s">
+        <v>373</v>
+      </c>
+      <c r="D41" s="128" t="s">
+        <v>13</v>
+      </c>
+      <c r="E41" s="128" t="s">
+        <v>16</v>
+      </c>
+      <c r="F41" s="128" t="s">
+        <v>13</v>
+      </c>
+      <c r="G41" s="128" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A42" s="88" t="s">
+        <v>113</v>
+      </c>
+      <c r="B42" s="30" t="s">
+        <v>172</v>
+      </c>
+      <c r="C42" s="102" t="s">
+        <v>377</v>
+      </c>
+      <c r="D42" s="128" t="s">
+        <v>13</v>
+      </c>
+      <c r="E42" s="128" t="s">
+        <v>16</v>
+      </c>
+      <c r="F42" s="128" t="s">
+        <v>13</v>
+      </c>
+      <c r="G42" s="128" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A43" s="73" t="s">
+        <v>113</v>
+      </c>
+      <c r="B43" s="30" t="s">
+        <v>358</v>
+      </c>
+      <c r="C43" s="30" t="s">
+        <v>359</v>
+      </c>
+      <c r="D43" s="128" t="s">
+        <v>13</v>
+      </c>
+      <c r="E43" s="128" t="s">
+        <v>16</v>
+      </c>
+      <c r="F43" s="128" t="s">
+        <v>13</v>
+      </c>
+      <c r="G43" s="128" t="s">
         <v>13</v>
       </c>
     </row>
@@ -5582,7 +5955,7 @@
         <v>18</v>
       </c>
       <c r="B1" s="84" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C1" s="50"/>
       <c r="D1" s="51"/>
@@ -5609,16 +5982,16 @@
     </row>
     <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="143" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B4" s="144" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C4" s="90"/>
     </row>
     <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="49" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B5" s="85" t="s">
         <v>13</v>
@@ -5627,34 +6000,34 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="143" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B6" s="144" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C6" s="90"/>
     </row>
     <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="49" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B7" s="103" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C7" s="90"/>
     </row>
     <row r="8" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A8" s="143" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B8" s="144" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C8" s="90"/>
     </row>
     <row r="9" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A9" s="49" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B9" s="79" t="s">
         <v>13</v>
@@ -5683,7 +6056,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="89" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B12" s="121" t="s">
         <v>23</v>
@@ -5692,27 +6065,27 @@
         <v>24</v>
       </c>
       <c r="D12" s="112" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="E12" s="35" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F12" s="35" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G12" s="122" t="s">
         <v>25</v>
       </c>
       <c r="H12" s="35" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="I12" s="35" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="123" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B13" s="79" t="s">
         <v>26</v>
@@ -5721,13 +6094,13 @@
         <v>27</v>
       </c>
       <c r="D13" s="114" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E13" s="85">
         <v>1</v>
       </c>
       <c r="F13" s="85" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G13" s="124">
         <v>1</v>
@@ -5741,27 +6114,27 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="36" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B14" s="54" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C14" s="35" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D14" s="35" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E14" s="35" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F14" s="35" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="87" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B15" s="85" t="s">
         <v>13</v>
@@ -5816,10 +6189,10 @@
         <v>35</v>
       </c>
       <c r="G18" s="136" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="H18" s="136" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="19" spans="1:18" ht="30" x14ac:dyDescent="0.25">
@@ -5850,7 +6223,7 @@
     </row>
     <row r="20" spans="1:18" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A20" s="105" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B20" s="121" t="s">
         <v>40</v>
@@ -5859,10 +6232,10 @@
         <v>41</v>
       </c>
       <c r="D20" s="127" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E20" s="112" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F20" s="122" t="s">
         <v>42</v>
@@ -5877,18 +6250,18 @@
         <v>45</v>
       </c>
       <c r="J20" s="118" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="K20" s="136" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="L20" s="136" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="21" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="106" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B21" s="128" t="s">
         <v>13</v>
@@ -5926,7 +6299,7 @@
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="36" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B22" s="54" t="s">
         <v>40</v>
@@ -5938,17 +6311,17 @@
         <v>42</v>
       </c>
       <c r="E22" s="136" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="F22" s="136" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="G22" s="37"/>
       <c r="H22" s="60"/>
     </row>
     <row r="23" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="49" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B23" s="128" t="s">
         <v>13</v>
@@ -5988,7 +6361,7 @@
         <v>49</v>
       </c>
       <c r="G24" s="130" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:18" ht="15" x14ac:dyDescent="0.25">
@@ -6011,7 +6384,7 @@
         <v>0.5</v>
       </c>
       <c r="G25" s="85" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="26" spans="1:18" ht="15" x14ac:dyDescent="0.25">
@@ -6034,7 +6407,7 @@
         <v>0.5</v>
       </c>
       <c r="G26" s="85" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="27" spans="1:18" ht="20.399999999999999" x14ac:dyDescent="0.25">
@@ -6116,7 +6489,7 @@
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="105" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B32" s="110" t="s">
         <v>2</v>
@@ -6140,7 +6513,7 @@
     </row>
     <row r="33" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="160" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B33" s="161" t="s">
         <v>13</v>
@@ -6164,34 +6537,34 @@
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" s="57" t="s">
+        <v>191</v>
+      </c>
+      <c r="B34" s="136" t="s">
+        <v>287</v>
+      </c>
+      <c r="C34" s="108" t="s">
+        <v>192</v>
+      </c>
+      <c r="D34" s="108" t="s">
+        <v>193</v>
+      </c>
+      <c r="E34" s="108" t="s">
         <v>194</v>
       </c>
-      <c r="B34" s="136" t="s">
-        <v>290</v>
-      </c>
-      <c r="C34" s="108" t="s">
+      <c r="F34" s="136" t="s">
+        <v>285</v>
+      </c>
+      <c r="G34" s="136" t="s">
+        <v>286</v>
+      </c>
+      <c r="H34" s="108" t="s">
         <v>195</v>
       </c>
-      <c r="D34" s="108" t="s">
+      <c r="I34" s="108" t="s">
         <v>196</v>
       </c>
-      <c r="E34" s="108" t="s">
+      <c r="J34" s="108" t="s">
         <v>197</v>
-      </c>
-      <c r="F34" s="136" t="s">
-        <v>288</v>
-      </c>
-      <c r="G34" s="136" t="s">
-        <v>289</v>
-      </c>
-      <c r="H34" s="108" t="s">
-        <v>198</v>
-      </c>
-      <c r="I34" s="108" t="s">
-        <v>199</v>
-      </c>
-      <c r="J34" s="108" t="s">
-        <v>200</v>
       </c>
       <c r="K34" s="108" t="s">
         <v>54</v>
@@ -6200,33 +6573,33 @@
         <v>55</v>
       </c>
       <c r="M34" s="108" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N34" s="108" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="O34" s="108" t="s">
         <v>39</v>
       </c>
       <c r="P34" s="108" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="Q34" s="108" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="R34" s="108" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="S34" s="108" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="T34" s="119" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="35" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="109" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B35" s="104" t="s">
         <v>13</v>
@@ -6370,10 +6743,10 @@
         <v>35</v>
       </c>
       <c r="G42" s="136" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="H42" s="136" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="43" spans="1:20" ht="15" x14ac:dyDescent="0.25">
@@ -6404,7 +6777,7 @@
     </row>
     <row r="44" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A44" s="105" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B44" s="18" t="s">
         <v>40</v>
@@ -6413,10 +6786,10 @@
         <v>41</v>
       </c>
       <c r="D44" s="20" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E44" s="112" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F44" s="14" t="s">
         <v>42</v>
@@ -6431,18 +6804,18 @@
         <v>45</v>
       </c>
       <c r="J44" s="118" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="K44" s="136" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="L44" s="136" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="45" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" s="106" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B45" s="19" t="s">
         <v>64</v>
@@ -6480,7 +6853,7 @@
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" s="36" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B46" s="54" t="s">
         <v>40</v>
@@ -6492,17 +6865,17 @@
         <v>42</v>
       </c>
       <c r="E46" s="136" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="F46" s="136" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="G46" s="37"/>
       <c r="H46" s="60"/>
     </row>
     <row r="47" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" s="49" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B47" s="128" t="s">
         <v>13</v>
@@ -6542,7 +6915,7 @@
         <v>49</v>
       </c>
       <c r="G48" s="130" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="49" spans="1:20" ht="15" x14ac:dyDescent="0.25">
@@ -6565,7 +6938,7 @@
         <v>0.5</v>
       </c>
       <c r="G49" s="85" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="50" spans="1:20" ht="15" x14ac:dyDescent="0.25">
@@ -6588,7 +6961,7 @@
         <v>0.5</v>
       </c>
       <c r="G50" s="85" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="51" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.25">
@@ -6670,7 +7043,7 @@
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A56" s="105" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B56" s="110" t="s">
         <v>2</v>
@@ -6694,7 +7067,7 @@
     </row>
     <row r="57" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A57" s="160" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B57" s="161" t="s">
         <v>13</v>
@@ -6718,34 +7091,34 @@
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A58" s="57" t="s">
+        <v>191</v>
+      </c>
+      <c r="B58" s="136" t="s">
+        <v>287</v>
+      </c>
+      <c r="C58" s="110" t="s">
+        <v>192</v>
+      </c>
+      <c r="D58" s="110" t="s">
+        <v>193</v>
+      </c>
+      <c r="E58" s="111" t="s">
         <v>194</v>
       </c>
-      <c r="B58" s="136" t="s">
-        <v>290</v>
-      </c>
-      <c r="C58" s="110" t="s">
+      <c r="F58" s="136" t="s">
+        <v>285</v>
+      </c>
+      <c r="G58" s="136" t="s">
+        <v>286</v>
+      </c>
+      <c r="H58" s="110" t="s">
         <v>195</v>
       </c>
-      <c r="D58" s="110" t="s">
+      <c r="I58" s="108" t="s">
         <v>196</v>
       </c>
-      <c r="E58" s="111" t="s">
+      <c r="J58" s="110" t="s">
         <v>197</v>
-      </c>
-      <c r="F58" s="136" t="s">
-        <v>288</v>
-      </c>
-      <c r="G58" s="136" t="s">
-        <v>289</v>
-      </c>
-      <c r="H58" s="110" t="s">
-        <v>198</v>
-      </c>
-      <c r="I58" s="108" t="s">
-        <v>199</v>
-      </c>
-      <c r="J58" s="110" t="s">
-        <v>200</v>
       </c>
       <c r="K58" s="112" t="s">
         <v>54</v>
@@ -6754,36 +7127,36 @@
         <v>55</v>
       </c>
       <c r="M58" s="112" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N58" s="112" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="O58" s="112" t="s">
         <v>39</v>
       </c>
       <c r="P58" s="112" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="Q58" s="112" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="R58" s="116" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="S58" s="108" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="T58" s="119" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="59" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A59" s="109" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B59" s="113" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C59" s="113" t="s">
         <v>13</v>
@@ -6792,7 +7165,7 @@
         <v>1</v>
       </c>
       <c r="E59" s="115" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F59" s="85" t="s">
         <v>13</v>
@@ -6816,7 +7189,7 @@
         <v>13</v>
       </c>
       <c r="M59" s="114" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="N59" s="114" t="s">
         <v>13</v>
@@ -6897,7 +7270,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:T37"/>
+  <dimension ref="A1:T38"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
@@ -6911,7 +7284,7 @@
         <v>18</v>
       </c>
       <c r="B1" s="84" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C1" s="50"/>
       <c r="D1" s="51"/>
@@ -6938,52 +7311,52 @@
     </row>
     <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="143" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B4" s="144" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C4" s="90"/>
     </row>
     <row r="5" spans="1:9" ht="165" x14ac:dyDescent="0.25">
       <c r="A5" s="49" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B5" s="31" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C5" s="90"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="143" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B6" s="144" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C6" s="90"/>
     </row>
     <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="49" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B7" s="103" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C7" s="90"/>
     </row>
     <row r="8" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A8" s="143" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B8" s="144" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C8" s="90"/>
     </row>
     <row r="9" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A9" s="49" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B9" s="104" t="s">
         <v>13</v>
@@ -7013,7 +7386,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="89" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B12" s="121" t="s">
         <v>23</v>
@@ -7022,27 +7395,27 @@
         <v>24</v>
       </c>
       <c r="D12" s="112" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="E12" s="35" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F12" s="35" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G12" s="122" t="s">
         <v>25</v>
       </c>
       <c r="H12" s="35" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="I12" s="35" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="123" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B13" s="124" t="s">
         <v>27</v>
@@ -7051,19 +7424,19 @@
         <v>27</v>
       </c>
       <c r="D13" s="114" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="E13" s="85">
         <v>2</v>
       </c>
       <c r="F13" s="85" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G13" s="124">
         <v>1</v>
       </c>
       <c r="H13" s="124" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="I13" s="85" t="s">
         <v>37</v>
@@ -7071,36 +7444,36 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="36" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B14" s="54" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C14" s="35" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D14" s="35" t="s">
+        <v>166</v>
+      </c>
+      <c r="E14" s="35" t="s">
+        <v>167</v>
+      </c>
+      <c r="F14" s="35" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A15" s="138" t="s">
+        <v>238</v>
+      </c>
+      <c r="B15" s="30" t="s">
         <v>169</v>
       </c>
-      <c r="E14" s="35" t="s">
-        <v>170</v>
-      </c>
-      <c r="F14" s="35" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A15" s="123" t="s">
-        <v>241</v>
-      </c>
-      <c r="B15" s="30" t="s">
-        <v>172</v>
-      </c>
       <c r="C15" s="31" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D15" s="139" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E15" s="85" t="s">
         <v>37</v>
@@ -7109,336 +7482,332 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="37"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="1"/>
-    </row>
-    <row r="17" spans="1:20" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="125" t="s">
+    <row r="16" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A16" s="123" t="s">
+        <v>238</v>
+      </c>
+      <c r="B16" s="30" t="s">
+        <v>364</v>
+      </c>
+      <c r="C16" s="31" t="s">
+        <v>365</v>
+      </c>
+      <c r="D16" s="189" t="s">
+        <v>179</v>
+      </c>
+      <c r="E16" s="85" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" s="190" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17" s="37"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="1"/>
+    </row>
+    <row r="18" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="A18" s="125" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="126" t="s">
+      <c r="B18" s="126" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-    </row>
-    <row r="18" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A18" s="57" t="s">
+      <c r="C18" s="5"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+    </row>
+    <row r="19" spans="1:18" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A19" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="121" t="s">
+      <c r="B19" s="121" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="122" t="s">
+      <c r="C19" s="122" t="s">
         <v>32</v>
       </c>
-      <c r="D18" s="122" t="s">
+      <c r="D19" s="122" t="s">
         <v>33</v>
       </c>
-      <c r="E18" s="122" t="s">
+      <c r="E19" s="122" t="s">
         <v>34</v>
       </c>
-      <c r="F18" s="122" t="s">
+      <c r="F19" s="122" t="s">
         <v>35</v>
       </c>
-      <c r="G18" s="136" t="s">
-        <v>288</v>
-      </c>
-      <c r="H18" s="136" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="109" t="s">
+      <c r="G19" s="136" t="s">
+        <v>285</v>
+      </c>
+      <c r="H19" s="136" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="A20" s="109" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="80" t="s">
-        <v>181</v>
-      </c>
-      <c r="C19" s="139" t="s">
-        <v>182</v>
-      </c>
-      <c r="D19" s="139" t="s">
-        <v>182</v>
-      </c>
-      <c r="E19" s="139" t="s">
+      <c r="B20" s="80" t="s">
+        <v>178</v>
+      </c>
+      <c r="C20" s="139" t="s">
+        <v>179</v>
+      </c>
+      <c r="D20" s="139" t="s">
+        <v>179</v>
+      </c>
+      <c r="E20" s="139" t="s">
         <v>37</v>
       </c>
-      <c r="F19" s="139" t="s">
+      <c r="F20" s="139" t="s">
         <v>37</v>
       </c>
-      <c r="G19" s="85" t="s">
-        <v>13</v>
-      </c>
-      <c r="H19" s="85" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A20" s="105" t="s">
-        <v>208</v>
-      </c>
-      <c r="B20" s="121" t="s">
+      <c r="G20" s="85" t="s">
+        <v>13</v>
+      </c>
+      <c r="H20" s="85" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A21" s="105" t="s">
+        <v>205</v>
+      </c>
+      <c r="B21" s="121" t="s">
         <v>40</v>
       </c>
-      <c r="C20" s="122" t="s">
+      <c r="C21" s="122" t="s">
         <v>41</v>
       </c>
-      <c r="D20" s="127" t="s">
-        <v>242</v>
-      </c>
-      <c r="E20" s="112" t="s">
-        <v>213</v>
-      </c>
-      <c r="F20" s="122" t="s">
+      <c r="D21" s="127" t="s">
+        <v>239</v>
+      </c>
+      <c r="E21" s="112" t="s">
+        <v>210</v>
+      </c>
+      <c r="F21" s="122" t="s">
         <v>42</v>
       </c>
-      <c r="G20" s="122" t="s">
+      <c r="G21" s="122" t="s">
         <v>43</v>
       </c>
-      <c r="H20" s="122" t="s">
+      <c r="H21" s="122" t="s">
         <v>44</v>
       </c>
-      <c r="I20" s="122" t="s">
+      <c r="I21" s="122" t="s">
         <v>45</v>
       </c>
-      <c r="J20" s="142" t="s">
-        <v>204</v>
-      </c>
-      <c r="K20" s="136" t="s">
-        <v>288</v>
-      </c>
-      <c r="L20" s="136" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" s="106" t="s">
-        <v>208</v>
-      </c>
-      <c r="B21" s="140" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21" s="79" t="s">
-        <v>13</v>
-      </c>
-      <c r="D21" s="79" t="s">
-        <v>13</v>
-      </c>
-      <c r="E21" s="141" t="s">
-        <v>13</v>
-      </c>
-      <c r="F21" s="79" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" s="79" t="s">
-        <v>13</v>
-      </c>
-      <c r="H21" s="79" t="s">
-        <v>13</v>
-      </c>
-      <c r="I21" s="79" t="s">
-        <v>13</v>
-      </c>
-      <c r="J21" s="141" t="s">
-        <v>13</v>
-      </c>
-      <c r="K21" s="85" t="s">
-        <v>13</v>
-      </c>
-      <c r="L21" s="85" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A22" s="36" t="s">
-        <v>91</v>
-      </c>
-      <c r="B22" s="54" t="s">
+      <c r="J21" s="142" t="s">
+        <v>201</v>
+      </c>
+      <c r="K21" s="136" t="s">
+        <v>285</v>
+      </c>
+      <c r="L21" s="136" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="A22" s="106" t="s">
+        <v>205</v>
+      </c>
+      <c r="B22" s="140" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="79" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="79" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="141" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" s="79" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22" s="79" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" s="79" t="s">
+        <v>13</v>
+      </c>
+      <c r="I22" s="79" t="s">
+        <v>13</v>
+      </c>
+      <c r="J22" s="141" t="s">
+        <v>13</v>
+      </c>
+      <c r="K22" s="85" t="s">
+        <v>13</v>
+      </c>
+      <c r="L22" s="85" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A23" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="B23" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="C22" s="35" t="s">
+      <c r="C23" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="D22" s="35" t="s">
+      <c r="D23" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="E22" s="136" t="s">
-        <v>288</v>
-      </c>
-      <c r="F22" s="136" t="s">
-        <v>289</v>
-      </c>
-      <c r="G22" s="37"/>
-      <c r="H22" s="60"/>
-    </row>
-    <row r="23" spans="1:20" ht="15" x14ac:dyDescent="0.25">
-      <c r="A23" s="49" t="s">
-        <v>91</v>
-      </c>
-      <c r="B23" s="128" t="s">
-        <v>13</v>
-      </c>
-      <c r="C23" s="79" t="s">
-        <v>13</v>
-      </c>
-      <c r="D23" s="79" t="s">
-        <v>13</v>
-      </c>
-      <c r="E23" s="85" t="s">
-        <v>13</v>
-      </c>
-      <c r="F23" s="85" t="s">
-        <v>13</v>
+      <c r="E23" s="136" t="s">
+        <v>285</v>
+      </c>
+      <c r="F23" s="136" t="s">
+        <v>286</v>
       </c>
       <c r="G23" s="37"/>
       <c r="H23" s="60"/>
     </row>
-    <row r="24" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A24" s="36" t="s">
+    <row r="24" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="A24" s="49" t="s">
+        <v>88</v>
+      </c>
+      <c r="B24" s="128" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="79" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="79" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" s="85" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" s="85" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" s="37"/>
+      <c r="H24" s="60"/>
+    </row>
+    <row r="25" spans="1:18" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A25" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="54" t="s">
+      <c r="B25" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="C24" s="35" t="s">
+      <c r="C25" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="D24" s="35" t="s">
+      <c r="D25" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="E24" s="35" t="s">
+      <c r="E25" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="F24" s="129" t="s">
+      <c r="F25" s="129" t="s">
         <v>49</v>
       </c>
-      <c r="G24" s="130" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" ht="15" x14ac:dyDescent="0.25">
-      <c r="A25" s="131" t="s">
+      <c r="G25" s="130" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="A26" s="131" t="s">
         <v>46</v>
       </c>
-      <c r="B25" s="53" t="s">
+      <c r="B26" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="139" t="s">
-        <v>182</v>
-      </c>
-      <c r="D25" s="133" t="s">
-        <v>13</v>
-      </c>
-      <c r="E25" s="133" t="s">
-        <v>13</v>
-      </c>
-      <c r="F25" s="133">
+      <c r="C26" s="139" t="s">
+        <v>179</v>
+      </c>
+      <c r="D26" s="133" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26" s="133" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26" s="133">
         <v>0.5</v>
       </c>
-      <c r="G25" s="85" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A26" s="52" t="s">
+      <c r="G26" s="85" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A27" s="52" t="s">
         <v>51</v>
       </c>
-      <c r="B26" s="121" t="s">
+      <c r="B27" s="121" t="s">
         <v>2</v>
       </c>
-      <c r="C26" s="122" t="s">
+      <c r="C27" s="122" t="s">
         <v>47</v>
       </c>
-      <c r="D26" s="122" t="s">
+      <c r="D27" s="122" t="s">
         <v>48</v>
       </c>
-      <c r="E26" s="7"/>
-      <c r="F26" s="2"/>
-    </row>
-    <row r="27" spans="1:20" ht="15" x14ac:dyDescent="0.25">
-      <c r="A27" s="131" t="s">
-        <v>51</v>
-      </c>
-      <c r="B27" s="53" t="s">
-        <v>9</v>
-      </c>
-      <c r="C27" s="80" t="s">
-        <v>181</v>
-      </c>
-      <c r="D27" s="133" t="s">
-        <v>13</v>
-      </c>
-      <c r="E27" s="25"/>
-      <c r="F27" s="16"/>
-    </row>
-    <row r="28" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+      <c r="E27" s="7"/>
+      <c r="F27" s="2"/>
+    </row>
+    <row r="28" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="131" t="s">
         <v>51</v>
       </c>
-      <c r="B28" s="126" t="s">
-        <v>12</v>
+      <c r="B28" s="53" t="s">
+        <v>9</v>
       </c>
       <c r="C28" s="80" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D28" s="133" t="s">
         <v>13</v>
       </c>
-      <c r="E28" s="12"/>
-    </row>
-    <row r="29" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+      <c r="E28" s="25"/>
+      <c r="F28" s="16"/>
+    </row>
+    <row r="29" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="131" t="s">
         <v>51</v>
       </c>
       <c r="B29" s="126" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="80" t="s">
+        <v>178</v>
+      </c>
+      <c r="D29" s="133" t="s">
+        <v>13</v>
+      </c>
+      <c r="E29" s="12"/>
+    </row>
+    <row r="30" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="A30" s="131" t="s">
+        <v>51</v>
+      </c>
+      <c r="B30" s="126" t="s">
         <v>15</v>
       </c>
-      <c r="C29" s="80" t="s">
-        <v>181</v>
-      </c>
-      <c r="D29" s="133" t="s">
-        <v>13</v>
-      </c>
-      <c r="E29" s="12"/>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A30" s="105" t="s">
-        <v>229</v>
-      </c>
-      <c r="B30" s="110" t="s">
+      <c r="C30" s="80" t="s">
+        <v>178</v>
+      </c>
+      <c r="D30" s="133" t="s">
+        <v>13</v>
+      </c>
+      <c r="E30" s="12"/>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A31" s="105" t="s">
+        <v>226</v>
+      </c>
+      <c r="B31" s="110" t="s">
         <v>2</v>
       </c>
-      <c r="C30" s="157"/>
-      <c r="D30" s="158"/>
-      <c r="E30" s="159"/>
-      <c r="F30" s="159"/>
-      <c r="G30" s="159"/>
-      <c r="H30" s="159"/>
-      <c r="I30" s="159"/>
-      <c r="J30" s="159"/>
-      <c r="K30" s="159"/>
-      <c r="L30" s="159"/>
-      <c r="M30" s="159"/>
-      <c r="N30" s="159"/>
-      <c r="O30" s="159"/>
-      <c r="P30" s="159"/>
-      <c r="Q30" s="159"/>
-      <c r="R30" s="159"/>
-    </row>
-    <row r="31" spans="1:20" ht="15" x14ac:dyDescent="0.25">
-      <c r="A31" s="160" t="s">
-        <v>229</v>
-      </c>
-      <c r="B31" s="161" t="s">
-        <v>13</v>
-      </c>
-      <c r="C31" s="162"/>
-      <c r="D31" s="159"/>
+      <c r="C31" s="157"/>
+      <c r="D31" s="158"/>
       <c r="E31" s="159"/>
       <c r="F31" s="159"/>
       <c r="G31" s="159"/>
@@ -7454,177 +7823,201 @@
       <c r="Q31" s="159"/>
       <c r="R31" s="159"/>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A32" s="57" t="s">
+    <row r="32" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="A32" s="160" t="s">
+        <v>226</v>
+      </c>
+      <c r="B32" s="161" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" s="162"/>
+      <c r="D32" s="159"/>
+      <c r="E32" s="159"/>
+      <c r="F32" s="159"/>
+      <c r="G32" s="159"/>
+      <c r="H32" s="159"/>
+      <c r="I32" s="159"/>
+      <c r="J32" s="159"/>
+      <c r="K32" s="159"/>
+      <c r="L32" s="159"/>
+      <c r="M32" s="159"/>
+      <c r="N32" s="159"/>
+      <c r="O32" s="159"/>
+      <c r="P32" s="159"/>
+      <c r="Q32" s="159"/>
+      <c r="R32" s="159"/>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A33" s="57" t="s">
+        <v>191</v>
+      </c>
+      <c r="B33" s="136" t="s">
+        <v>287</v>
+      </c>
+      <c r="C33" s="108" t="s">
+        <v>192</v>
+      </c>
+      <c r="D33" s="108" t="s">
+        <v>193</v>
+      </c>
+      <c r="E33" s="108" t="s">
         <v>194</v>
       </c>
-      <c r="B32" s="136" t="s">
-        <v>290</v>
-      </c>
-      <c r="C32" s="108" t="s">
+      <c r="F33" s="136" t="s">
+        <v>285</v>
+      </c>
+      <c r="G33" s="136" t="s">
+        <v>286</v>
+      </c>
+      <c r="H33" s="108" t="s">
         <v>195</v>
       </c>
-      <c r="D32" s="108" t="s">
+      <c r="I33" s="108" t="s">
         <v>196</v>
       </c>
-      <c r="E32" s="108" t="s">
+      <c r="J33" s="108" t="s">
         <v>197</v>
       </c>
-      <c r="F32" s="136" t="s">
-        <v>288</v>
-      </c>
-      <c r="G32" s="136" t="s">
-        <v>289</v>
-      </c>
-      <c r="H32" s="108" t="s">
+      <c r="K33" s="108" t="s">
+        <v>54</v>
+      </c>
+      <c r="L33" s="108" t="s">
+        <v>55</v>
+      </c>
+      <c r="M33" s="108" t="s">
+        <v>98</v>
+      </c>
+      <c r="N33" s="108" t="s">
+        <v>241</v>
+      </c>
+      <c r="O33" s="108" t="s">
+        <v>39</v>
+      </c>
+      <c r="P33" s="108" t="s">
         <v>198</v>
       </c>
-      <c r="I32" s="108" t="s">
+      <c r="Q33" s="108" t="s">
         <v>199</v>
       </c>
-      <c r="J32" s="108" t="s">
+      <c r="R33" s="108" t="s">
         <v>200</v>
       </c>
-      <c r="K32" s="108" t="s">
+      <c r="S33" s="108" t="s">
+        <v>102</v>
+      </c>
+      <c r="T33" s="119" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+      <c r="A34" s="109" t="s">
+        <v>191</v>
+      </c>
+      <c r="B34" s="104" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" s="104" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" s="104" t="s">
+        <v>13</v>
+      </c>
+      <c r="E34" s="104" t="s">
+        <v>13</v>
+      </c>
+      <c r="F34" s="85" t="s">
+        <v>13</v>
+      </c>
+      <c r="G34" s="85" t="s">
+        <v>13</v>
+      </c>
+      <c r="H34" s="104" t="s">
+        <v>13</v>
+      </c>
+      <c r="I34" s="104" t="s">
+        <v>13</v>
+      </c>
+      <c r="J34" s="104" t="s">
+        <v>13</v>
+      </c>
+      <c r="K34" s="104" t="s">
+        <v>13</v>
+      </c>
+      <c r="L34" s="104" t="s">
+        <v>13</v>
+      </c>
+      <c r="M34" s="104" t="s">
+        <v>13</v>
+      </c>
+      <c r="N34" s="104" t="s">
+        <v>13</v>
+      </c>
+      <c r="O34" s="104" t="s">
+        <v>13</v>
+      </c>
+      <c r="P34" s="104" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q34" s="104" t="s">
+        <v>13</v>
+      </c>
+      <c r="R34" s="104" t="s">
+        <v>13</v>
+      </c>
+      <c r="S34" s="104" t="s">
+        <v>13</v>
+      </c>
+      <c r="T34" s="104" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A35" s="57" t="s">
+        <v>52</v>
+      </c>
+      <c r="B35" s="121" t="s">
+        <v>53</v>
+      </c>
+      <c r="C35" s="157"/>
+    </row>
+    <row r="36" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+      <c r="A36" s="109" t="s">
+        <v>52</v>
+      </c>
+      <c r="B36" s="79" t="s">
+        <v>27</v>
+      </c>
+      <c r="C36" s="162"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15"/>
+    </row>
+    <row r="37" spans="1:20" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A37" s="57" t="s">
+        <v>56</v>
+      </c>
+      <c r="B37" s="121" t="s">
         <v>54</v>
       </c>
-      <c r="L32" s="108" t="s">
+      <c r="C37" s="122" t="s">
         <v>55</v>
       </c>
-      <c r="M32" s="108" t="s">
-        <v>101</v>
-      </c>
-      <c r="N32" s="108" t="s">
-        <v>244</v>
-      </c>
-      <c r="O32" s="108" t="s">
-        <v>39</v>
-      </c>
-      <c r="P32" s="108" t="s">
-        <v>201</v>
-      </c>
-      <c r="Q32" s="108" t="s">
-        <v>202</v>
-      </c>
-      <c r="R32" s="108" t="s">
-        <v>203</v>
-      </c>
-      <c r="S32" s="108" t="s">
-        <v>105</v>
-      </c>
-      <c r="T32" s="119" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20" ht="15" x14ac:dyDescent="0.25">
-      <c r="A33" s="109" t="s">
-        <v>194</v>
-      </c>
-      <c r="B33" s="104" t="s">
-        <v>13</v>
-      </c>
-      <c r="C33" s="104" t="s">
-        <v>13</v>
-      </c>
-      <c r="D33" s="104" t="s">
-        <v>13</v>
-      </c>
-      <c r="E33" s="104" t="s">
-        <v>13</v>
-      </c>
-      <c r="F33" s="85" t="s">
-        <v>13</v>
-      </c>
-      <c r="G33" s="85" t="s">
-        <v>13</v>
-      </c>
-      <c r="H33" s="104" t="s">
-        <v>13</v>
-      </c>
-      <c r="I33" s="104" t="s">
-        <v>13</v>
-      </c>
-      <c r="J33" s="104" t="s">
-        <v>13</v>
-      </c>
-      <c r="K33" s="104" t="s">
-        <v>13</v>
-      </c>
-      <c r="L33" s="104" t="s">
-        <v>13</v>
-      </c>
-      <c r="M33" s="104" t="s">
-        <v>13</v>
-      </c>
-      <c r="N33" s="104" t="s">
-        <v>13</v>
-      </c>
-      <c r="O33" s="104" t="s">
-        <v>13</v>
-      </c>
-      <c r="P33" s="104" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q33" s="104" t="s">
-        <v>13</v>
-      </c>
-      <c r="R33" s="104" t="s">
-        <v>13</v>
-      </c>
-      <c r="S33" s="104" t="s">
-        <v>13</v>
-      </c>
-      <c r="T33" s="104" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A34" s="57" t="s">
-        <v>52</v>
-      </c>
-      <c r="B34" s="121" t="s">
-        <v>53</v>
-      </c>
-      <c r="C34" s="157"/>
-    </row>
-    <row r="35" spans="1:20" ht="15" x14ac:dyDescent="0.25">
-      <c r="A35" s="109" t="s">
-        <v>52</v>
-      </c>
-      <c r="B35" s="79" t="s">
-        <v>27</v>
-      </c>
-      <c r="C35" s="162"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
-    </row>
-    <row r="36" spans="1:20" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A36" s="57" t="s">
+      <c r="D37" s="25"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="16"/>
+    </row>
+    <row r="38" spans="1:20" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A38" s="109" t="s">
         <v>56</v>
       </c>
-      <c r="B36" s="121" t="s">
-        <v>54</v>
-      </c>
-      <c r="C36" s="122" t="s">
-        <v>55</v>
-      </c>
-      <c r="D36" s="25"/>
-      <c r="E36" s="16"/>
-      <c r="F36" s="16"/>
-    </row>
-    <row r="37" spans="1:20" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A37" s="109" t="s">
-        <v>56</v>
-      </c>
-      <c r="B37" s="79" t="s">
-        <v>13</v>
-      </c>
-      <c r="C37" s="79" t="s">
-        <v>13</v>
-      </c>
-      <c r="D37" s="90"/>
-      <c r="E37" s="15"/>
-      <c r="F37" s="6"/>
+      <c r="B38" s="79" t="s">
+        <v>13</v>
+      </c>
+      <c r="C38" s="79" t="s">
+        <v>13</v>
+      </c>
+      <c r="D38" s="90"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7648,7 +8041,7 @@
         <v>18</v>
       </c>
       <c r="B1" s="84" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C1" s="50"/>
       <c r="D1" s="51"/>
@@ -7675,16 +8068,16 @@
     </row>
     <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="143" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B4" s="144" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C4" s="90"/>
     </row>
     <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="49" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B5" s="85" t="s">
         <v>13</v>
@@ -7693,34 +8086,34 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="143" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B6" s="144" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C6" s="90"/>
     </row>
     <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="49" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B7" s="103" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C7" s="90"/>
     </row>
     <row r="8" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A8" s="143" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B8" s="144" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C8" s="90"/>
     </row>
     <row r="9" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A9" s="49" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B9" s="79" t="s">
         <v>13</v>
@@ -7750,7 +8143,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="89" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B12" s="121" t="s">
         <v>23</v>
@@ -7759,27 +8152,27 @@
         <v>24</v>
       </c>
       <c r="D12" s="112" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="E12" s="35" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F12" s="112" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G12" s="122" t="s">
         <v>25</v>
       </c>
       <c r="H12" s="35" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="I12" s="35" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="123" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B13" s="124" t="s">
         <v>27</v>
@@ -7788,19 +8181,19 @@
         <v>27</v>
       </c>
       <c r="D13" s="114" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E13" s="85">
         <v>3</v>
       </c>
       <c r="F13" s="114" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G13" s="124">
         <v>1</v>
       </c>
       <c r="H13" s="124" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="I13" s="85" t="s">
         <v>13</v>
@@ -7808,36 +8201,36 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="36" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B14" s="54" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C14" s="35" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D14" s="35" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E14" s="35" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F14" s="35" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" s="138" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B15" s="30" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C15" s="31" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D15" s="85" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E15" s="85" t="s">
         <v>13</v>
@@ -7848,36 +8241,36 @@
     </row>
     <row r="16" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A16" s="138" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B16" s="30" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C16" s="31" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D16" s="85" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E16" s="85" t="s">
         <v>13</v>
       </c>
       <c r="F16" s="31" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A17" s="138" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B17" s="30" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C17" s="31" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D17" s="85" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E17" s="85" t="s">
         <v>13</v>
@@ -7888,16 +8281,16 @@
     </row>
     <row r="18" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A18" s="138" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B18" s="30" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D18" s="85" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E18" s="85" t="s">
         <v>13</v>
@@ -7908,16 +8301,16 @@
     </row>
     <row r="19" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A19" s="138" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B19" s="30" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C19" s="31" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D19" s="85" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E19" s="85" t="s">
         <v>13</v>
@@ -7928,16 +8321,16 @@
     </row>
     <row r="20" spans="1:12" ht="180" x14ac:dyDescent="0.25">
       <c r="A20" s="123" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B20" s="30" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C20" s="31" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D20" s="85" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E20" s="85" t="s">
         <v>13</v>
@@ -7983,10 +8376,10 @@
         <v>35</v>
       </c>
       <c r="G23" s="136" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="H23" s="136" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="15" x14ac:dyDescent="0.25">
@@ -7997,10 +8390,10 @@
         <v>36</v>
       </c>
       <c r="C24" s="139" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D24" s="139" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E24" s="139" t="s">
         <v>13</v>
@@ -8017,7 +8410,7 @@
     </row>
     <row r="25" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A25" s="105" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B25" s="121" t="s">
         <v>40</v>
@@ -8026,10 +8419,10 @@
         <v>41</v>
       </c>
       <c r="D25" s="127" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E25" s="112" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F25" s="122" t="s">
         <v>42</v>
@@ -8044,18 +8437,18 @@
         <v>45</v>
       </c>
       <c r="J25" s="136" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="K25" s="136" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="L25" s="136" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="106" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B26" s="140" t="s">
         <v>13</v>
@@ -8093,7 +8486,7 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="36" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B27" s="54" t="s">
         <v>40</v>
@@ -8105,17 +8498,17 @@
         <v>42</v>
       </c>
       <c r="E27" s="136" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="F27" s="136" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="G27" s="37"/>
       <c r="H27" s="60"/>
     </row>
     <row r="28" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="49" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B28" s="128" t="s">
         <v>13</v>
@@ -8155,7 +8548,7 @@
         <v>49</v>
       </c>
       <c r="G29" s="130" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="15" x14ac:dyDescent="0.25">
@@ -8178,7 +8571,7 @@
         <v>0.5</v>
       </c>
       <c r="G30" s="85" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.25">
@@ -8260,7 +8653,7 @@
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" s="105" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B36" s="110" t="s">
         <v>2</v>
@@ -8284,7 +8677,7 @@
     </row>
     <row r="37" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="160" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B37" s="161" t="s">
         <v>13</v>
@@ -8308,34 +8701,34 @@
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" s="57" t="s">
+        <v>191</v>
+      </c>
+      <c r="B38" s="136" t="s">
+        <v>287</v>
+      </c>
+      <c r="C38" s="108" t="s">
+        <v>192</v>
+      </c>
+      <c r="D38" s="108" t="s">
+        <v>193</v>
+      </c>
+      <c r="E38" s="108" t="s">
         <v>194</v>
       </c>
-      <c r="B38" s="136" t="s">
-        <v>290</v>
-      </c>
-      <c r="C38" s="108" t="s">
+      <c r="F38" s="136" t="s">
+        <v>285</v>
+      </c>
+      <c r="G38" s="136" t="s">
+        <v>286</v>
+      </c>
+      <c r="H38" s="108" t="s">
         <v>195</v>
       </c>
-      <c r="D38" s="108" t="s">
+      <c r="I38" s="108" t="s">
         <v>196</v>
       </c>
-      <c r="E38" s="108" t="s">
+      <c r="J38" s="108" t="s">
         <v>197</v>
-      </c>
-      <c r="F38" s="136" t="s">
-        <v>288</v>
-      </c>
-      <c r="G38" s="136" t="s">
-        <v>289</v>
-      </c>
-      <c r="H38" s="108" t="s">
-        <v>198</v>
-      </c>
-      <c r="I38" s="108" t="s">
-        <v>199</v>
-      </c>
-      <c r="J38" s="108" t="s">
-        <v>200</v>
       </c>
       <c r="K38" s="108" t="s">
         <v>54</v>
@@ -8344,33 +8737,33 @@
         <v>55</v>
       </c>
       <c r="M38" s="108" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N38" s="108" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="O38" s="108" t="s">
         <v>39</v>
       </c>
       <c r="P38" s="108" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="Q38" s="108" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="R38" s="108" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="S38" s="108" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="T38" s="119" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="39" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" s="109" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B39" s="104" t="s">
         <v>13</v>
@@ -8514,10 +8907,10 @@
         <v>35</v>
       </c>
       <c r="G46" s="136" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="H46" s="136" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="47" spans="1:20" ht="15" x14ac:dyDescent="0.25">
@@ -8548,7 +8941,7 @@
     </row>
     <row r="48" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A48" s="105" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B48" s="18" t="s">
         <v>40</v>
@@ -8557,10 +8950,10 @@
         <v>41</v>
       </c>
       <c r="D48" s="20" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E48" s="112" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F48" s="14" t="s">
         <v>42</v>
@@ -8575,18 +8968,18 @@
         <v>45</v>
       </c>
       <c r="J48" s="136" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="K48" s="136" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="L48" s="136" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="49" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A49" s="106" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B49" s="19" t="s">
         <v>64</v>
@@ -8624,7 +9017,7 @@
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50" s="36" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B50" s="54" t="s">
         <v>40</v>
@@ -8636,17 +9029,17 @@
         <v>42</v>
       </c>
       <c r="E50" s="136" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="F50" s="136" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="G50" s="37"/>
       <c r="H50" s="60"/>
     </row>
     <row r="51" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A51" s="49" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B51" s="128" t="s">
         <v>13</v>
@@ -8686,7 +9079,7 @@
         <v>49</v>
       </c>
       <c r="G52" s="130" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="53" spans="1:20" ht="15" x14ac:dyDescent="0.25">
@@ -8709,7 +9102,7 @@
         <v>0.5</v>
       </c>
       <c r="G53" s="85" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="54" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.25">
@@ -8791,7 +9184,7 @@
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A59" s="105" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B59" s="110" t="s">
         <v>2</v>
@@ -8815,7 +9208,7 @@
     </row>
     <row r="60" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A60" s="160" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B60" s="161" t="s">
         <v>13</v>
@@ -8839,34 +9232,34 @@
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A61" s="57" t="s">
+        <v>191</v>
+      </c>
+      <c r="B61" s="136" t="s">
+        <v>287</v>
+      </c>
+      <c r="C61" s="108" t="s">
+        <v>192</v>
+      </c>
+      <c r="D61" s="108" t="s">
+        <v>193</v>
+      </c>
+      <c r="E61" s="108" t="s">
         <v>194</v>
       </c>
-      <c r="B61" s="136" t="s">
-        <v>290</v>
-      </c>
-      <c r="C61" s="108" t="s">
+      <c r="F61" s="136" t="s">
+        <v>285</v>
+      </c>
+      <c r="G61" s="136" t="s">
+        <v>286</v>
+      </c>
+      <c r="H61" s="108" t="s">
         <v>195</v>
       </c>
-      <c r="D61" s="108" t="s">
+      <c r="I61" s="108" t="s">
         <v>196</v>
       </c>
-      <c r="E61" s="108" t="s">
+      <c r="J61" s="108" t="s">
         <v>197</v>
-      </c>
-      <c r="F61" s="136" t="s">
-        <v>288</v>
-      </c>
-      <c r="G61" s="136" t="s">
-        <v>289</v>
-      </c>
-      <c r="H61" s="108" t="s">
-        <v>198</v>
-      </c>
-      <c r="I61" s="108" t="s">
-        <v>199</v>
-      </c>
-      <c r="J61" s="108" t="s">
-        <v>200</v>
       </c>
       <c r="K61" s="108" t="s">
         <v>54</v>
@@ -8875,33 +9268,33 @@
         <v>55</v>
       </c>
       <c r="M61" s="108" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N61" s="108" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="O61" s="108" t="s">
         <v>39</v>
       </c>
       <c r="P61" s="108" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="Q61" s="108" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="R61" s="108" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="S61" s="108" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="T61" s="119" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="62" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A62" s="109" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B62" s="104" t="s">
         <v>13</v>
@@ -9032,7 +9425,7 @@
         <v>18</v>
       </c>
       <c r="B1" s="84" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C1" s="50"/>
       <c r="D1" s="51"/>
@@ -9059,16 +9452,16 @@
     </row>
     <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="143" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B4" s="144" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C4" s="90"/>
     </row>
     <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="49" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B5" s="85" t="s">
         <v>13</v>
@@ -9077,34 +9470,34 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="143" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B6" s="144" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C6" s="90"/>
     </row>
     <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="49" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B7" s="103" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C7" s="90"/>
     </row>
     <row r="8" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A8" s="143" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B8" s="144" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C8" s="90"/>
     </row>
     <row r="9" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A9" s="49" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B9" s="79" t="s">
         <v>13</v>
@@ -9134,7 +9527,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="89" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B12" s="121" t="s">
         <v>23</v>
@@ -9143,27 +9536,27 @@
         <v>24</v>
       </c>
       <c r="D12" s="112" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="E12" s="35" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F12" s="112" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G12" s="122" t="s">
         <v>25</v>
       </c>
       <c r="H12" s="35" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="I12" s="35" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="123" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B13" s="124" t="s">
         <v>27</v>
@@ -9172,13 +9565,13 @@
         <v>27</v>
       </c>
       <c r="D13" s="114" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E13" s="85">
         <v>3</v>
       </c>
       <c r="F13" s="114" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G13" s="124">
         <v>1</v>
@@ -9192,33 +9585,33 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="36" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B14" s="54" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C14" s="35" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D14" s="35" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E14" s="35" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F14" s="35" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="195" x14ac:dyDescent="0.25">
       <c r="A15" s="138" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B15" s="30" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C15" s="31" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D15" s="85" t="s">
         <v>13</v>
@@ -9267,10 +9660,10 @@
         <v>35</v>
       </c>
       <c r="G18" s="136" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="H18" s="136" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="19" spans="1:18" ht="15" x14ac:dyDescent="0.25">
@@ -9301,7 +9694,7 @@
     </row>
     <row r="20" spans="1:18" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A20" s="105" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B20" s="121" t="s">
         <v>40</v>
@@ -9310,10 +9703,10 @@
         <v>41</v>
       </c>
       <c r="D20" s="127" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E20" s="112" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F20" s="122" t="s">
         <v>42</v>
@@ -9328,21 +9721,21 @@
         <v>45</v>
       </c>
       <c r="J20" s="136" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="K20" s="136" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="L20" s="136" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="21" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="106" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B21" s="179" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C21" s="79" t="s">
         <v>13</v>
@@ -9351,16 +9744,16 @@
         <v>13</v>
       </c>
       <c r="E21" s="79" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F21" s="128" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="G21" s="80" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="H21" s="80" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="I21" s="79" t="s">
         <v>13</v>
@@ -9377,7 +9770,7 @@
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="36" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B22" s="54" t="s">
         <v>40</v>
@@ -9389,17 +9782,17 @@
         <v>42</v>
       </c>
       <c r="E22" s="136" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="F22" s="136" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="G22" s="37"/>
       <c r="H22" s="60"/>
     </row>
     <row r="23" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="49" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B23" s="128" t="s">
         <v>13</v>
@@ -9439,7 +9832,7 @@
         <v>49</v>
       </c>
       <c r="G24" s="130" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:18" ht="15" x14ac:dyDescent="0.25">
@@ -9462,7 +9855,7 @@
         <v>0.5</v>
       </c>
       <c r="G25" s="85" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="26" spans="1:18" ht="20.399999999999999" x14ac:dyDescent="0.25">
@@ -9544,7 +9937,7 @@
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="105" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B31" s="110" t="s">
         <v>2</v>
@@ -9568,7 +9961,7 @@
     </row>
     <row r="32" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="160" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B32" s="161" t="s">
         <v>13</v>
@@ -9592,34 +9985,34 @@
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" s="57" t="s">
+        <v>191</v>
+      </c>
+      <c r="B33" s="136" t="s">
+        <v>287</v>
+      </c>
+      <c r="C33" s="108" t="s">
+        <v>192</v>
+      </c>
+      <c r="D33" s="108" t="s">
+        <v>193</v>
+      </c>
+      <c r="E33" s="108" t="s">
         <v>194</v>
       </c>
-      <c r="B33" s="136" t="s">
-        <v>290</v>
-      </c>
-      <c r="C33" s="108" t="s">
+      <c r="F33" s="136" t="s">
+        <v>285</v>
+      </c>
+      <c r="G33" s="136" t="s">
+        <v>286</v>
+      </c>
+      <c r="H33" s="108" t="s">
         <v>195</v>
       </c>
-      <c r="D33" s="108" t="s">
+      <c r="I33" s="108" t="s">
         <v>196</v>
       </c>
-      <c r="E33" s="108" t="s">
+      <c r="J33" s="108" t="s">
         <v>197</v>
-      </c>
-      <c r="F33" s="136" t="s">
-        <v>288</v>
-      </c>
-      <c r="G33" s="136" t="s">
-        <v>289</v>
-      </c>
-      <c r="H33" s="108" t="s">
-        <v>198</v>
-      </c>
-      <c r="I33" s="108" t="s">
-        <v>199</v>
-      </c>
-      <c r="J33" s="108" t="s">
-        <v>200</v>
       </c>
       <c r="K33" s="108" t="s">
         <v>54</v>
@@ -9628,33 +10021,33 @@
         <v>55</v>
       </c>
       <c r="M33" s="108" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N33" s="108" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="O33" s="108" t="s">
         <v>39</v>
       </c>
       <c r="P33" s="108" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="Q33" s="108" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="R33" s="108" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="S33" s="108" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="T33" s="119" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="34" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="109" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B34" s="104" t="s">
         <v>13</v>
@@ -9798,10 +10191,10 @@
         <v>35</v>
       </c>
       <c r="G41" s="136" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="H41" s="136" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="42" spans="1:20" ht="15" x14ac:dyDescent="0.25">
@@ -9832,7 +10225,7 @@
     </row>
     <row r="43" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A43" s="105" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B43" s="18" t="s">
         <v>40</v>
@@ -9841,10 +10234,10 @@
         <v>41</v>
       </c>
       <c r="D43" s="20" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E43" s="112" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F43" s="14" t="s">
         <v>42</v>
@@ -9859,18 +10252,18 @@
         <v>45</v>
       </c>
       <c r="J43" s="136" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="K43" s="136" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="L43" s="136" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="44" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" s="106" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B44" s="19" t="s">
         <v>64</v>
@@ -9908,7 +10301,7 @@
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" s="36" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B45" s="54" t="s">
         <v>40</v>
@@ -9920,17 +10313,17 @@
         <v>42</v>
       </c>
       <c r="E45" s="136" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="F45" s="136" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="G45" s="37"/>
       <c r="H45" s="60"/>
     </row>
     <row r="46" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" s="49" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B46" s="128" t="s">
         <v>13</v>
@@ -9970,7 +10363,7 @@
         <v>49</v>
       </c>
       <c r="G47" s="130" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="48" spans="1:20" ht="15" x14ac:dyDescent="0.25">
@@ -9993,7 +10386,7 @@
         <v>0.5</v>
       </c>
       <c r="G48" s="85" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="49" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.25">
@@ -10075,7 +10468,7 @@
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A54" s="105" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B54" s="110" t="s">
         <v>2</v>
@@ -10099,7 +10492,7 @@
     </row>
     <row r="55" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A55" s="160" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B55" s="161" t="s">
         <v>13</v>
@@ -10123,34 +10516,34 @@
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A56" s="57" t="s">
+        <v>191</v>
+      </c>
+      <c r="B56" s="136" t="s">
+        <v>287</v>
+      </c>
+      <c r="C56" s="108" t="s">
+        <v>192</v>
+      </c>
+      <c r="D56" s="108" t="s">
+        <v>193</v>
+      </c>
+      <c r="E56" s="108" t="s">
         <v>194</v>
       </c>
-      <c r="B56" s="136" t="s">
-        <v>290</v>
-      </c>
-      <c r="C56" s="108" t="s">
+      <c r="F56" s="136" t="s">
+        <v>285</v>
+      </c>
+      <c r="G56" s="136" t="s">
+        <v>286</v>
+      </c>
+      <c r="H56" s="108" t="s">
         <v>195</v>
       </c>
-      <c r="D56" s="108" t="s">
+      <c r="I56" s="108" t="s">
         <v>196</v>
       </c>
-      <c r="E56" s="108" t="s">
+      <c r="J56" s="108" t="s">
         <v>197</v>
-      </c>
-      <c r="F56" s="136" t="s">
-        <v>288</v>
-      </c>
-      <c r="G56" s="136" t="s">
-        <v>289</v>
-      </c>
-      <c r="H56" s="108" t="s">
-        <v>198</v>
-      </c>
-      <c r="I56" s="108" t="s">
-        <v>199</v>
-      </c>
-      <c r="J56" s="108" t="s">
-        <v>200</v>
       </c>
       <c r="K56" s="108" t="s">
         <v>54</v>
@@ -10159,33 +10552,33 @@
         <v>55</v>
       </c>
       <c r="M56" s="108" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N56" s="108" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="O56" s="108" t="s">
         <v>39</v>
       </c>
       <c r="P56" s="108" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="Q56" s="108" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="R56" s="108" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="S56" s="108" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="T56" s="119" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="57" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A57" s="109" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B57" s="104" t="s">
         <v>13</v>
